--- a/Results/Results/result analysis_final.xlsx
+++ b/Results/Results/result analysis_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khand\Desktop\PhD\CUDA test\Test\test 1\DynamicSSSP2\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khand\source\repos\DynamicSSSP2\DynamicSSSP2\git\Results\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +154,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,19 +203,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -211,6 +241,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,17 +573,17 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
@@ -551,44 +595,44 @@
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>100</v>
       </c>
       <c r="G7">
-        <v>2209.29</v>
-      </c>
-      <c r="H7" s="8">
-        <v>438.78100000000001</v>
-      </c>
-      <c r="I7" s="8">
-        <v>20.571999999999999</v>
-      </c>
-      <c r="J7" s="8">
+        <v>2144.19</v>
+      </c>
+      <c r="H7" s="6">
+        <v>235.32900000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>258.14999999999998</v>
+      </c>
+      <c r="J7" s="2">
         <f>H7+I7</f>
-        <v>459.35300000000001</v>
+        <v>493.47899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -598,18 +642,14 @@
       <c r="F8" s="1">
         <v>75</v>
       </c>
-      <c r="G8">
-        <v>2197.17</v>
-      </c>
-      <c r="H8" s="8">
-        <v>440.90199999999999</v>
-      </c>
-      <c r="I8" s="8">
-        <v>56.387999999999998</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="G8" s="11">
+        <v>2153.52</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="14">
         <f t="shared" ref="J8:J26" si="0">H8+I8</f>
-        <v>497.28999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -619,18 +659,12 @@
       <c r="F9" s="1">
         <v>50</v>
       </c>
-      <c r="G9">
-        <v>2180.38</v>
-      </c>
-      <c r="H9" s="8">
-        <v>440.81400000000002</v>
-      </c>
-      <c r="I9" s="8">
-        <v>74.33</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>515.14400000000001</v>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -640,18 +674,12 @@
       <c r="F10" s="1">
         <v>25</v>
       </c>
-      <c r="G10">
-        <v>2188.34</v>
-      </c>
-      <c r="H10" s="8">
-        <v>442.22800000000001</v>
-      </c>
-      <c r="I10" s="8">
-        <v>108.702</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="0"/>
-        <v>550.93000000000006</v>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -661,39 +689,33 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>2188.88</v>
-      </c>
-      <c r="H11" s="8">
-        <v>434.20600000000002</v>
-      </c>
-      <c r="I11" s="8">
-        <v>126.514</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>560.72</v>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>100</v>
       </c>
       <c r="G12">
-        <v>2283.8200000000002</v>
-      </c>
-      <c r="H12" s="8">
-        <v>444.072</v>
-      </c>
-      <c r="I12" s="8">
-        <v>35.738999999999997</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>479.81099999999998</v>
+        <v>2212.3200000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>251.166</v>
+      </c>
+      <c r="I12" s="6">
+        <v>292.36700000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>543.53300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -704,17 +726,17 @@
         <v>75</v>
       </c>
       <c r="G13">
-        <v>2257.52</v>
-      </c>
-      <c r="H13" s="8">
-        <v>466.42599999999999</v>
-      </c>
-      <c r="I13" s="8">
-        <v>149.642</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="0"/>
-        <v>616.06799999999998</v>
+        <v>2231.59</v>
+      </c>
+      <c r="H13" s="6">
+        <v>576.48699999999997</v>
+      </c>
+      <c r="I13" s="6">
+        <v>377.166</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>953.65300000000002</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -725,17 +747,17 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <v>2237.38</v>
-      </c>
-      <c r="H14" s="8">
-        <v>473.01799999999997</v>
-      </c>
-      <c r="I14" s="8">
-        <v>226.333</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="0"/>
-        <v>699.351</v>
+        <v>2362.42</v>
+      </c>
+      <c r="H14" s="6">
+        <v>578.46299999999997</v>
+      </c>
+      <c r="I14" s="6">
+        <v>545.21199999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>1123.675</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -746,17 +768,17 @@
         <v>25</v>
       </c>
       <c r="G15">
-        <v>2244.86</v>
-      </c>
-      <c r="H15" s="8">
-        <v>450.29899999999998</v>
-      </c>
-      <c r="I15" s="8">
-        <v>262.19799999999998</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="0"/>
-        <v>712.49699999999996</v>
+        <v>2186.2600000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <v>586.91700000000003</v>
+      </c>
+      <c r="I15" s="6">
+        <v>679.75699999999995</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>1266.674</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -767,38 +789,38 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2239.17</v>
-      </c>
-      <c r="H16" s="8">
-        <v>473.03399999999999</v>
-      </c>
-      <c r="I16" s="8">
-        <v>330.45800000000003</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>803.49199999999996</v>
+        <v>2185.14</v>
+      </c>
+      <c r="H16" s="6">
+        <v>605.61099999999999</v>
+      </c>
+      <c r="I16" s="6">
+        <v>916.73500000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>1522.346</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>100</v>
       </c>
       <c r="G17">
-        <v>2390.15</v>
-      </c>
-      <c r="H17" s="8">
-        <v>448.49299999999999</v>
-      </c>
-      <c r="I17" s="8">
-        <v>54.401000000000003</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="0"/>
-        <v>502.89400000000001</v>
+        <v>2336.7600000000002</v>
+      </c>
+      <c r="H17" s="6">
+        <v>271.76100000000002</v>
+      </c>
+      <c r="I17" s="6">
+        <v>318.7</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>590.46100000000001</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
@@ -809,17 +831,17 @@
         <v>75</v>
       </c>
       <c r="G18">
-        <v>2373.61</v>
-      </c>
-      <c r="H18" s="8">
-        <v>483.54599999999999</v>
-      </c>
-      <c r="I18" s="8">
-        <v>235.35499999999999</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>718.90099999999995</v>
+        <v>2303.5500000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <v>609.55100000000004</v>
+      </c>
+      <c r="I18" s="6">
+        <v>587.48400000000004</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>1197.0350000000001</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
@@ -830,17 +852,17 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>2365.02</v>
-      </c>
-      <c r="H19" s="8">
-        <v>451.34699999999998</v>
-      </c>
-      <c r="I19" s="8">
-        <v>330.37400000000002</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="0"/>
-        <v>781.721</v>
+        <v>2276.94</v>
+      </c>
+      <c r="H19" s="6">
+        <v>622.279</v>
+      </c>
+      <c r="I19" s="6">
+        <v>952.36400000000003</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>1574.643</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
@@ -851,17 +873,17 @@
         <v>25</v>
       </c>
       <c r="G20">
-        <v>2302.61</v>
-      </c>
-      <c r="H20" s="8">
-        <v>510.53399999999999</v>
-      </c>
-      <c r="I20" s="8">
-        <v>501.25799999999998</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>1011.7919999999999</v>
+        <v>2260.73</v>
+      </c>
+      <c r="H20" s="6">
+        <v>650.495</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1425.14</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>2075.6350000000002</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
@@ -872,38 +894,38 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2303.58</v>
-      </c>
-      <c r="H21" s="8">
-        <v>516.024</v>
-      </c>
-      <c r="I21" s="8">
-        <v>570.85299999999995</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>1086.877</v>
+        <v>2236.9299999999998</v>
+      </c>
+      <c r="H21" s="6">
+        <v>670.60199999999998</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1432.89</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>2103.4920000000002</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>100</v>
       </c>
       <c r="G22">
-        <v>3375.58</v>
-      </c>
-      <c r="H22" s="8">
-        <v>448.98899999999998</v>
-      </c>
-      <c r="I22" s="8">
-        <v>163.79</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="0"/>
-        <v>612.779</v>
+        <v>3315.92</v>
+      </c>
+      <c r="H22" s="6">
+        <v>272.87900000000002</v>
+      </c>
+      <c r="I22" s="6">
+        <v>445.935</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>718.81400000000008</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
@@ -914,17 +936,17 @@
         <v>75</v>
       </c>
       <c r="G23">
-        <v>3298.97</v>
-      </c>
-      <c r="H23" s="8">
-        <v>583.99199999999996</v>
-      </c>
-      <c r="I23" s="8">
-        <v>861.85500000000002</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="0"/>
-        <v>1445.847</v>
+        <v>3210.42</v>
+      </c>
+      <c r="H23" s="6">
+        <v>753.78499999999997</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2110.89</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>2864.6749999999997</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
@@ -935,17 +957,17 @@
         <v>50</v>
       </c>
       <c r="G24">
-        <v>3029.05</v>
-      </c>
-      <c r="H24" s="8">
-        <v>616.41399999999999</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1205.5899999999999</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="0"/>
-        <v>1822.0039999999999</v>
+        <v>3090.74</v>
+      </c>
+      <c r="H24" s="6">
+        <v>816.76400000000001</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2707.01</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>3523.7740000000003</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
@@ -956,17 +978,17 @@
         <v>25</v>
       </c>
       <c r="G25">
-        <v>3146.15</v>
-      </c>
-      <c r="H25" s="8">
-        <v>651.90800000000002</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1630.44</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>2282.348</v>
+        <v>2847.49</v>
+      </c>
+      <c r="H25" s="6">
+        <v>922.89400000000001</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2801.94</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>3724.8339999999998</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
@@ -977,17 +999,17 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2770.15</v>
-      </c>
-      <c r="H26" s="8">
-        <v>697.68799999999999</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1558.99</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="0"/>
-        <v>2256.6779999999999</v>
+        <v>2742.1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1012.07</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2161.9699999999998</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>3174.04</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1026,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,17 +1062,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1062,44 +1084,47 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>307.64499999999998</v>
-      </c>
-      <c r="G7" s="8">
-        <v>62.661000000000001</v>
-      </c>
-      <c r="H7" s="8">
-        <v>7.3630000000000004</v>
-      </c>
-      <c r="I7" s="8">
+        <v>308.07299999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>48.843000000000004</v>
+      </c>
+      <c r="H7" s="6">
+        <v>36.927999999999997</v>
+      </c>
+      <c r="I7" s="2">
         <f>G7+H7</f>
-        <v>70.024000000000001</v>
+        <v>85.771000000000001</v>
+      </c>
+      <c r="K7" s="16">
+        <v>369.43888700000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1110,17 +1135,20 @@
         <v>75</v>
       </c>
       <c r="F8">
-        <v>314.02600000000001</v>
-      </c>
-      <c r="G8" s="8">
-        <v>111.95699999999999</v>
-      </c>
-      <c r="H8" s="8">
-        <v>20.896000000000001</v>
-      </c>
-      <c r="I8" s="8">
+        <v>307.75400000000002</v>
+      </c>
+      <c r="G8" s="6">
+        <v>137.56899999999999</v>
+      </c>
+      <c r="H8" s="6">
+        <v>125.232</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
-        <v>132.85300000000001</v>
+        <v>262.80099999999999</v>
+      </c>
+      <c r="K8" s="16">
+        <v>355.087042</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1131,17 +1159,20 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>304.60500000000002</v>
-      </c>
-      <c r="G9" s="8">
-        <v>132.28899999999999</v>
-      </c>
-      <c r="H9" s="8">
-        <v>26.321999999999999</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>158.61099999999999</v>
+        <v>302.56700000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>154.506</v>
+      </c>
+      <c r="H9" s="6">
+        <v>116.739</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>271.245</v>
+      </c>
+      <c r="K9" s="16">
+        <v>350.59309000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1152,17 +1183,20 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>314.471</v>
-      </c>
-      <c r="G10" s="8">
-        <v>144.565</v>
-      </c>
-      <c r="H10" s="8">
-        <v>29.776</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>174.34100000000001</v>
+        <v>301.22399999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>182.46799999999999</v>
+      </c>
+      <c r="H10" s="6">
+        <v>123.438</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>305.90600000000001</v>
+      </c>
+      <c r="K10" s="16">
+        <v>345.705986</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1173,38 +1207,44 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>300.13099999999997</v>
-      </c>
-      <c r="G11" s="8">
-        <v>159.26400000000001</v>
-      </c>
-      <c r="H11" s="8">
-        <v>30.198</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>189.46200000000002</v>
+        <v>294.892</v>
+      </c>
+      <c r="G11" s="6">
+        <v>183.51300000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>107.649</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>291.16200000000003</v>
+      </c>
+      <c r="K11" s="16">
+        <v>339.08319499999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>100</v>
       </c>
       <c r="F12">
-        <v>381.012</v>
-      </c>
-      <c r="G12" s="8">
-        <v>78.72</v>
-      </c>
-      <c r="H12" s="8">
-        <v>29.006</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>107.726</v>
+        <v>372.47800000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>59.686999999999998</v>
+      </c>
+      <c r="H12" s="6">
+        <v>49.027999999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>108.715</v>
+      </c>
+      <c r="K12" s="16">
+        <v>362.36405400000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1215,17 +1255,20 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>371.08600000000001</v>
-      </c>
-      <c r="G13" s="8">
-        <v>240.316</v>
-      </c>
-      <c r="H13" s="8">
-        <v>35.890999999999998</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>276.20699999999999</v>
+        <v>364.59500000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <v>257.928</v>
+      </c>
+      <c r="H13" s="6">
+        <v>83.757000000000005</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>341.685</v>
+      </c>
+      <c r="K13" s="16">
+        <v>355.015039</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1236,17 +1279,20 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>368.19200000000001</v>
-      </c>
-      <c r="G14" s="8">
-        <v>347.35199999999998</v>
-      </c>
-      <c r="H14" s="8">
-        <v>88.581999999999994</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>435.93399999999997</v>
+        <v>351.101</v>
+      </c>
+      <c r="G14" s="6">
+        <v>372.09699999999998</v>
+      </c>
+      <c r="H14" s="6">
+        <v>93.266999999999996</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>465.36399999999998</v>
+      </c>
+      <c r="K14" s="16">
+        <v>354.67505499999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1257,17 +1303,20 @@
         <v>25</v>
       </c>
       <c r="F15">
-        <v>359.54199999999997</v>
-      </c>
-      <c r="G15" s="8">
-        <v>439.83699999999999</v>
-      </c>
-      <c r="H15" s="8">
-        <v>260.005</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>699.84199999999998</v>
+        <v>344.721</v>
+      </c>
+      <c r="G15" s="6">
+        <v>469.82900000000001</v>
+      </c>
+      <c r="H15" s="6">
+        <v>281.45600000000002</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>751.28500000000008</v>
+      </c>
+      <c r="K15" s="16">
+        <v>338.23704700000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1278,41 +1327,47 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>345.26</v>
-      </c>
-      <c r="G16" s="8">
-        <v>491.851</v>
-      </c>
-      <c r="H16" s="8">
-        <v>251.858</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>743.70900000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
+        <v>331.5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>529.94399999999996</v>
+      </c>
+      <c r="H16" s="6">
+        <v>281.78300000000002</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>811.72699999999998</v>
+      </c>
+      <c r="K16" s="16">
+        <v>324.71203800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>100</v>
       </c>
       <c r="F17">
-        <v>501.25799999999998</v>
-      </c>
-      <c r="G17" s="8">
-        <v>151.25</v>
-      </c>
-      <c r="H17" s="8">
-        <v>96.933000000000007</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>248.18299999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+        <v>613.18200000000002</v>
+      </c>
+      <c r="G17" s="6">
+        <v>120.536</v>
+      </c>
+      <c r="H17" s="6">
+        <v>127.657</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>248.19299999999998</v>
+      </c>
+      <c r="K17" s="16">
+        <v>385.24699199999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,20 +1375,23 @@
         <v>75</v>
       </c>
       <c r="F18">
-        <v>458.88099999999997</v>
-      </c>
-      <c r="G18" s="8">
-        <v>390.01799999999997</v>
-      </c>
-      <c r="H18" s="8">
-        <v>116.262</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>506.28</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+        <v>486.78100000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>410.76400000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>122.068</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>532.83199999999999</v>
+      </c>
+      <c r="K18" s="16">
+        <v>360.80908799999997</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1341,20 +1399,23 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>437.87</v>
-      </c>
-      <c r="G19" s="8">
-        <v>625.48800000000006</v>
-      </c>
-      <c r="H19" s="8">
-        <v>140.279</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>765.76700000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+        <v>426.89600000000002</v>
+      </c>
+      <c r="G19" s="6">
+        <v>645.40800000000002</v>
+      </c>
+      <c r="H19" s="6">
+        <v>267.86200000000002</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>913.27</v>
+      </c>
+      <c r="K19" s="16">
+        <v>352.956772</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,20 +1423,23 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <v>415.92200000000003</v>
-      </c>
-      <c r="G20" s="8">
-        <v>757.61199999999997</v>
-      </c>
-      <c r="H20" s="8">
-        <v>167.577</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>925.18899999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+        <v>423.096</v>
+      </c>
+      <c r="G20" s="6">
+        <v>825.47900000000004</v>
+      </c>
+      <c r="H20" s="6">
+        <v>252.786</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>1078.2650000000001</v>
+      </c>
+      <c r="K20" s="16">
+        <v>336.36784599999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1383,22 +1447,25 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>400.30599999999998</v>
-      </c>
-      <c r="G21" s="8">
-        <v>914.46100000000001</v>
-      </c>
-      <c r="H21" s="8">
-        <v>213.124</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>1127.585</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+        <v>389.88200000000001</v>
+      </c>
+      <c r="G21" s="6">
+        <v>972.98099999999999</v>
+      </c>
+      <c r="H21" s="6">
+        <v>293.06</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>1266.0409999999999</v>
+      </c>
+      <c r="K21" s="16">
+        <v>318.16101099999997</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1414,7 +1481,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F7" sqref="F7:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,17 +1517,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1472,45 +1539,35 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <v>301.94499999999999</v>
-      </c>
-      <c r="G7" s="8">
-        <v>64.402000000000001</v>
-      </c>
-      <c r="H7" s="8">
-        <v>22.486000000000001</v>
-      </c>
-      <c r="I7" s="8">
-        <f>G7+H7</f>
-        <v>86.888000000000005</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1519,19 +1576,9 @@
       <c r="E8" s="1">
         <v>75</v>
       </c>
-      <c r="F8">
-        <v>296.65600000000001</v>
-      </c>
-      <c r="G8" s="8">
-        <v>287.904</v>
-      </c>
-      <c r="H8" s="8">
-        <v>22.919</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" ref="I8:I21" si="0">G8+H8</f>
-        <v>310.82299999999998</v>
-      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -1540,19 +1587,9 @@
       <c r="E9" s="1">
         <v>50</v>
       </c>
-      <c r="F9">
-        <v>314.64699999999999</v>
-      </c>
-      <c r="G9" s="8">
-        <v>429.56900000000002</v>
-      </c>
-      <c r="H9" s="8">
-        <v>33.57</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>463.13900000000001</v>
-      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
@@ -1561,19 +1598,9 @@
       <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="F10">
-        <v>293.19799999999998</v>
-      </c>
-      <c r="G10" s="8">
-        <v>444.86099999999999</v>
-      </c>
-      <c r="H10" s="8">
-        <v>67.834999999999994</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>512.69600000000003</v>
-      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
@@ -1582,40 +1609,20 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>329.17399999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>503.85300000000001</v>
-      </c>
-      <c r="H11" s="8">
-        <v>73.356999999999999</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>577.21</v>
-      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>100</v>
       </c>
-      <c r="F12">
-        <v>357.245</v>
-      </c>
-      <c r="G12" s="8">
-        <v>76.316000000000003</v>
-      </c>
-      <c r="H12" s="8">
-        <v>651.45899999999995</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>727.77499999999998</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
@@ -1624,19 +1631,9 @@
       <c r="E13" s="1">
         <v>75</v>
       </c>
-      <c r="F13">
-        <v>351.64400000000001</v>
-      </c>
-      <c r="G13" s="8">
-        <v>914.077</v>
-      </c>
-      <c r="H13" s="8">
-        <v>739.31799999999998</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>1653.395</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
@@ -1645,19 +1642,9 @@
       <c r="E14" s="1">
         <v>50</v>
       </c>
-      <c r="F14">
-        <v>338.58699999999999</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1640.24</v>
-      </c>
-      <c r="H14" s="8">
-        <v>857.69600000000003</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>2497.9360000000001</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
@@ -1666,19 +1653,9 @@
       <c r="E15" s="1">
         <v>25</v>
       </c>
-      <c r="F15">
-        <v>333.51299999999998</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1983.57</v>
-      </c>
-      <c r="H15" s="8">
-        <v>213.405</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>2196.9749999999999</v>
-      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
@@ -1687,40 +1664,20 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>347.173</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2227.36</v>
-      </c>
-      <c r="H16" s="8">
-        <v>198.636</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>2425.9960000000001</v>
-      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>100</v>
       </c>
-      <c r="F17">
-        <v>474.58300000000003</v>
-      </c>
-      <c r="G17" s="8">
-        <v>89.688999999999993</v>
-      </c>
-      <c r="H17" s="8">
-        <v>710.10799999999995</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>799.79699999999991</v>
-      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
@@ -1729,19 +1686,9 @@
       <c r="E18" s="1">
         <v>75</v>
       </c>
-      <c r="F18">
-        <v>452.928</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1686.53</v>
-      </c>
-      <c r="H18" s="8">
-        <v>870.69500000000005</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>2557.2249999999999</v>
-      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
@@ -1750,19 +1697,9 @@
       <c r="E19" s="1">
         <v>50</v>
       </c>
-      <c r="F19">
-        <v>422.846</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3188.24</v>
-      </c>
-      <c r="H19" s="8">
-        <v>326.18700000000001</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>3514.4269999999997</v>
-      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
@@ -1771,19 +1708,9 @@
       <c r="E20" s="1">
         <v>25</v>
       </c>
-      <c r="F20">
-        <v>401.42700000000002</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3827.17</v>
-      </c>
-      <c r="H20" s="8">
-        <v>850.928</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>4678.098</v>
-      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
@@ -1792,39 +1719,29 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>379.56599999999997</v>
-      </c>
-      <c r="G21" s="8">
-        <v>4410.17</v>
-      </c>
-      <c r="H21" s="8">
-        <v>661.31299999999999</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>5071.4830000000002</v>
-      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1840,7 +1757,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,17 +1793,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1901,41 +1818,44 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>423.12099999999998</v>
-      </c>
-      <c r="G7" s="8">
-        <v>92.471999999999994</v>
-      </c>
-      <c r="H7" s="8">
-        <v>15.952</v>
-      </c>
-      <c r="I7" s="8">
+        <v>413.59300000000002</v>
+      </c>
+      <c r="G7" s="6">
+        <v>53.99</v>
+      </c>
+      <c r="H7" s="6">
+        <v>55.731000000000002</v>
+      </c>
+      <c r="I7" s="2">
         <f>G7+H7</f>
-        <v>108.42399999999999</v>
+        <v>109.721</v>
+      </c>
+      <c r="K7" s="15">
+        <v>388.22913199999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1946,17 +1866,20 @@
         <v>75</v>
       </c>
       <c r="F8">
-        <v>418.02600000000001</v>
-      </c>
-      <c r="G8" s="8">
-        <v>107.123</v>
-      </c>
-      <c r="H8" s="8">
-        <v>34.939</v>
-      </c>
-      <c r="I8" s="8">
+        <v>415.27600000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>132.90700000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45.005000000000003</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
-        <v>142.06200000000001</v>
+        <v>177.91200000000001</v>
+      </c>
+      <c r="K8" s="15">
+        <v>348.92988200000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1967,17 +1890,20 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>419.21600000000001</v>
-      </c>
-      <c r="G9" s="8">
-        <v>123.265</v>
-      </c>
-      <c r="H9" s="8">
-        <v>38.26</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>161.52500000000001</v>
+        <v>409.17399999999998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>158.613</v>
+      </c>
+      <c r="H9" s="6">
+        <v>49.712000000000003</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>208.32499999999999</v>
+      </c>
+      <c r="K9" s="15">
+        <v>385.38193699999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1988,17 +1914,20 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>418.113</v>
-      </c>
-      <c r="G10" s="8">
-        <v>130.506</v>
-      </c>
-      <c r="H10" s="8">
-        <v>36.204000000000001</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>166.71</v>
+        <v>410.07299999999998</v>
+      </c>
+      <c r="G10" s="6">
+        <v>183.09100000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>50.183</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>233.274</v>
+      </c>
+      <c r="K10" s="15">
+        <v>374.88102900000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2009,38 +1938,44 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>412.24900000000002</v>
-      </c>
-      <c r="G11" s="8">
-        <v>139.18100000000001</v>
-      </c>
-      <c r="H11" s="8">
-        <v>92.228999999999999</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>231.41000000000003</v>
+        <v>403.43400000000003</v>
+      </c>
+      <c r="G11" s="6">
+        <v>179.10400000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>48.177</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>227.28100000000001</v>
+      </c>
+      <c r="K11" s="15">
+        <v>366.29891400000002</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>100</v>
       </c>
       <c r="F12">
-        <v>504.50200000000001</v>
-      </c>
-      <c r="G12" s="8">
-        <v>93.126000000000005</v>
-      </c>
-      <c r="H12" s="8">
-        <v>27.684999999999999</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>120.81100000000001</v>
+        <v>483.79399999999998</v>
+      </c>
+      <c r="G12" s="6">
+        <v>75.475999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>145.626</v>
+      </c>
+      <c r="K12" s="15">
+        <v>397.81713500000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2051,17 +1986,20 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>490.82299999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>182.58199999999999</v>
-      </c>
-      <c r="H13" s="8">
-        <v>69.483999999999995</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>252.06599999999997</v>
+        <v>471.18299999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <v>239.684</v>
+      </c>
+      <c r="H13" s="6">
+        <v>49.701000000000001</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>289.38499999999999</v>
+      </c>
+      <c r="K13" s="15">
+        <v>387.14194300000003</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2072,17 +2010,20 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>486.565</v>
-      </c>
-      <c r="G14" s="8">
-        <v>246.00399999999999</v>
-      </c>
-      <c r="H14" s="8">
-        <v>74.864999999999995</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>320.86899999999997</v>
+        <v>466.88600000000002</v>
+      </c>
+      <c r="G14" s="6">
+        <v>347.61599999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>56.44</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>404.05599999999998</v>
+      </c>
+      <c r="K14" s="15">
+        <v>380.256891</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,17 +2034,20 @@
         <v>25</v>
       </c>
       <c r="F15">
-        <v>490.31799999999998</v>
-      </c>
-      <c r="G15" s="8">
-        <v>282.91800000000001</v>
-      </c>
-      <c r="H15" s="8">
-        <v>78.733999999999995</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>361.65199999999999</v>
+        <v>451.43900000000002</v>
+      </c>
+      <c r="G15" s="6">
+        <v>404.584</v>
+      </c>
+      <c r="H15" s="6">
+        <v>55.08</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>459.66399999999999</v>
+      </c>
+      <c r="K15" s="15">
+        <v>369.19307700000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,41 +2058,47 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>468.10300000000001</v>
-      </c>
-      <c r="G16" s="8">
-        <v>308.72800000000001</v>
-      </c>
-      <c r="H16" s="8">
-        <v>281.33699999999999</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>590.06500000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
+        <v>444.52800000000002</v>
+      </c>
+      <c r="G16" s="6">
+        <v>478.49900000000002</v>
+      </c>
+      <c r="H16" s="6">
+        <v>95.102999999999994</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>573.60199999999998</v>
+      </c>
+      <c r="K16" s="15">
+        <v>359.47298999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>100</v>
       </c>
       <c r="F17">
-        <v>652.05899999999997</v>
-      </c>
-      <c r="G17" s="8">
-        <v>197.732</v>
-      </c>
-      <c r="H17" s="8">
-        <v>39.405999999999999</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>237.13800000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+        <v>584.88599999999997</v>
+      </c>
+      <c r="G17" s="6">
+        <v>139.881</v>
+      </c>
+      <c r="H17" s="6">
+        <v>77.88</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>217.761</v>
+      </c>
+      <c r="K17" s="15">
+        <v>417.29807899999997</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2156,20 +2106,23 @@
         <v>75</v>
       </c>
       <c r="F18">
-        <v>574.54100000000005</v>
-      </c>
-      <c r="G18" s="8">
-        <v>267.673</v>
-      </c>
-      <c r="H18" s="8">
-        <v>79.197999999999993</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>346.87099999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+        <v>563.58799999999997</v>
+      </c>
+      <c r="G18" s="6">
+        <v>364.09300000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <v>57.023000000000003</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>421.11600000000004</v>
+      </c>
+      <c r="K18" s="15">
+        <v>391.49594300000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2177,20 +2130,23 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>562.33199999999999</v>
-      </c>
-      <c r="G19" s="8">
-        <v>390.077</v>
-      </c>
-      <c r="H19" s="8">
-        <v>84.123000000000005</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>474.2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+        <v>545.52099999999996</v>
+      </c>
+      <c r="G19" s="6">
+        <v>574.48599999999999</v>
+      </c>
+      <c r="H19" s="6">
+        <v>63.121000000000002</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>637.60699999999997</v>
+      </c>
+      <c r="K19" s="15">
+        <v>384.86885999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2198,20 +2154,23 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <v>543.572</v>
-      </c>
-      <c r="G20" s="8">
-        <v>460.346</v>
-      </c>
-      <c r="H20" s="8">
-        <v>88.290999999999997</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>548.63699999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+        <v>518.22799999999995</v>
+      </c>
+      <c r="G20" s="6">
+        <v>692.21199999999999</v>
+      </c>
+      <c r="H20" s="6">
+        <v>149.285</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>841.49699999999996</v>
+      </c>
+      <c r="K20" s="15">
+        <v>368.16287</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2219,22 +2178,25 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>536.07399999999996</v>
-      </c>
-      <c r="G21" s="8">
-        <v>518.98199999999997</v>
-      </c>
-      <c r="H21" s="8">
-        <v>300.81700000000001</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>819.79899999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+        <v>512.96199999999999</v>
+      </c>
+      <c r="G21" s="6">
+        <v>829.97400000000005</v>
+      </c>
+      <c r="H21" s="6">
+        <v>169.36799999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>999.3420000000001</v>
+      </c>
+      <c r="K21" s="15">
+        <v>361.533165</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2250,7 +2212,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,17 +2247,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2307,44 +2269,47 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>330.65300000000002</v>
-      </c>
-      <c r="G7" s="8">
-        <v>51.017000000000003</v>
-      </c>
-      <c r="H7" s="8">
-        <v>23.024000000000001</v>
-      </c>
-      <c r="I7" s="8">
+        <v>322.47500000000002</v>
+      </c>
+      <c r="G7" s="6">
+        <v>48.576000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>33.914000000000001</v>
+      </c>
+      <c r="I7" s="2">
         <f>G7+H7</f>
-        <v>74.040999999999997</v>
+        <v>82.490000000000009</v>
+      </c>
+      <c r="K7" s="15">
+        <v>344.90799900000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2355,17 +2320,20 @@
         <v>75</v>
       </c>
       <c r="F8">
-        <v>457.71300000000002</v>
-      </c>
-      <c r="G8" s="8">
-        <v>96.42</v>
-      </c>
-      <c r="H8" s="8">
-        <v>21.219000000000001</v>
-      </c>
-      <c r="I8" s="8">
+        <v>320.77199999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>100.628</v>
+      </c>
+      <c r="H8" s="6">
+        <v>25.649000000000001</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
-        <v>117.63900000000001</v>
+        <v>126.277</v>
+      </c>
+      <c r="K8" s="15">
+        <v>330.68084700000003</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2376,17 +2344,20 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>325.96699999999998</v>
-      </c>
-      <c r="G9" s="8">
-        <v>111.45099999999999</v>
-      </c>
-      <c r="H9" s="8">
-        <v>27.55</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>139.001</v>
+        <v>321.75099999999998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>111.486</v>
+      </c>
+      <c r="H9" s="6">
+        <v>26.713999999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>138.19999999999999</v>
+      </c>
+      <c r="K9" s="15">
+        <v>324.31197200000003</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2397,17 +2368,20 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>320.23</v>
-      </c>
-      <c r="G10" s="8">
-        <v>110.405</v>
-      </c>
-      <c r="H10" s="8">
-        <v>28.434000000000001</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>138.839</v>
+        <v>314.68599999999998</v>
+      </c>
+      <c r="G10" s="6">
+        <v>115.10299999999999</v>
+      </c>
+      <c r="H10" s="6">
+        <v>24.062999999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>139.166</v>
+      </c>
+      <c r="K10" s="15">
+        <v>329.32901399999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2418,38 +2392,44 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>318.84699999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>127.83799999999999</v>
-      </c>
-      <c r="H11" s="8">
-        <v>27.591000000000001</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>155.429</v>
+        <v>309.96699999999998</v>
+      </c>
+      <c r="G11" s="6">
+        <v>124.65600000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>27.265000000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>151.92099999999999</v>
+      </c>
+      <c r="K11" s="15">
+        <v>322.77584100000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>100</v>
       </c>
       <c r="F12">
-        <v>417.428</v>
-      </c>
-      <c r="G12" s="8">
-        <v>89.293000000000006</v>
-      </c>
-      <c r="H12" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>134.79300000000001</v>
+        <v>398.53</v>
+      </c>
+      <c r="G12" s="6">
+        <v>96.655000000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>92.009</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>188.66399999999999</v>
+      </c>
+      <c r="K12" s="15">
+        <v>345.79110100000003</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,17 +2440,20 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>397.90499999999997</v>
-      </c>
-      <c r="G13" s="8">
-        <v>154.32</v>
-      </c>
-      <c r="H13" s="8">
-        <v>34.503999999999998</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>188.82399999999998</v>
+        <v>383.94</v>
+      </c>
+      <c r="G13" s="6">
+        <v>154.05699999999999</v>
+      </c>
+      <c r="H13" s="6">
+        <v>36.161999999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>190.21899999999999</v>
+      </c>
+      <c r="K13" s="15">
+        <v>331.00795699999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2481,17 +2464,20 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>1308.83</v>
-      </c>
-      <c r="G14" s="8">
-        <v>198.60499999999999</v>
-      </c>
-      <c r="H14" s="8">
-        <v>58.395000000000003</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>257</v>
+        <v>373.108</v>
+      </c>
+      <c r="G14" s="6">
+        <v>191.68799999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>76.534000000000006</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>268.22199999999998</v>
+      </c>
+      <c r="K14" s="15">
+        <v>334.06806</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2502,17 +2488,20 @@
         <v>25</v>
       </c>
       <c r="F15">
-        <v>391.17</v>
-      </c>
-      <c r="G15" s="8">
-        <v>218.51599999999999</v>
-      </c>
-      <c r="H15" s="8">
-        <v>45.759</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>264.27499999999998</v>
+        <v>369.137</v>
+      </c>
+      <c r="G15" s="6">
+        <v>237.55500000000001</v>
+      </c>
+      <c r="H15" s="6">
+        <v>49.676000000000002</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>287.23099999999999</v>
+      </c>
+      <c r="K15" s="15">
+        <v>315.76585799999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2523,41 +2512,47 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>361.01299999999998</v>
-      </c>
-      <c r="G16" s="8">
-        <v>281.43900000000002</v>
-      </c>
-      <c r="H16" s="8">
-        <v>45.469000000000001</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>326.90800000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
+        <v>347.71699999999998</v>
+      </c>
+      <c r="G16" s="6">
+        <v>270.834</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44.106999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>314.94100000000003</v>
+      </c>
+      <c r="K16" s="15">
+        <v>323.12393200000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>100</v>
       </c>
       <c r="F17">
-        <v>510.553</v>
-      </c>
-      <c r="G17" s="8">
-        <v>72.659000000000006</v>
-      </c>
-      <c r="H17" s="8">
-        <v>56.207999999999998</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>128.86700000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+        <v>526.08399999999995</v>
+      </c>
+      <c r="G17" s="6">
+        <v>74.302000000000007</v>
+      </c>
+      <c r="H17" s="6">
+        <v>89.116</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>163.41800000000001</v>
+      </c>
+      <c r="K17" s="15">
+        <v>362.47611000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2565,20 +2560,23 @@
         <v>75</v>
       </c>
       <c r="F18">
-        <v>487.762</v>
-      </c>
-      <c r="G18" s="8">
-        <v>223.786</v>
-      </c>
-      <c r="H18" s="8">
-        <v>53.058</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>276.84399999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+        <v>473.32600000000002</v>
+      </c>
+      <c r="G18" s="6">
+        <v>212.99700000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>70.031000000000006</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>283.02800000000002</v>
+      </c>
+      <c r="K18" s="15">
+        <v>345.62516199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2586,20 +2584,23 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>454.56</v>
-      </c>
-      <c r="G19" s="8">
-        <v>308.44200000000001</v>
-      </c>
-      <c r="H19" s="8">
-        <v>57.189</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>365.63100000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+        <v>445.62200000000001</v>
+      </c>
+      <c r="G19" s="6">
+        <v>303.69799999999998</v>
+      </c>
+      <c r="H19" s="6">
+        <v>67.88</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>371.57799999999997</v>
+      </c>
+      <c r="K19" s="15">
+        <v>326.30801200000002</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2607,20 +2608,23 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <v>447.17899999999997</v>
-      </c>
-      <c r="G20" s="8">
-        <v>395.38900000000001</v>
-      </c>
-      <c r="H20" s="8">
-        <v>83.081999999999994</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>478.471</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+        <v>436.24599999999998</v>
+      </c>
+      <c r="G20" s="6">
+        <v>399.65899999999999</v>
+      </c>
+      <c r="H20" s="6">
+        <v>91.837999999999994</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>491.49699999999996</v>
+      </c>
+      <c r="K20" s="15">
+        <v>306.70690500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2628,38 +2632,41 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>423.64499999999998</v>
-      </c>
-      <c r="G21" s="8">
-        <v>457.39499999999998</v>
-      </c>
-      <c r="H21" s="8">
-        <v>51.984999999999999</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>509.38</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+        <v>405.46800000000002</v>
+      </c>
+      <c r="G21" s="6">
+        <v>453.12700000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <v>52.331000000000003</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>505.45800000000003</v>
+      </c>
+      <c r="K21" s="15">
+        <v>418.59698300000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2675,7 +2682,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F6" sqref="F6:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,17 +2717,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -2732,150 +2739,90 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>116.71899999999999</v>
-      </c>
-      <c r="G6" s="8">
-        <v>31.859000000000002</v>
-      </c>
-      <c r="H6" s="8">
-        <v>37.545999999999999</v>
-      </c>
-      <c r="I6" s="8">
-        <f>G6+H6</f>
-        <v>69.405000000000001</v>
-      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>75</v>
       </c>
-      <c r="F7">
-        <v>114.872</v>
-      </c>
-      <c r="G7" s="8">
-        <v>36.567999999999998</v>
-      </c>
-      <c r="H7" s="8">
-        <v>76.570999999999998</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" ref="I7:I20" si="0">G7+H7</f>
-        <v>113.139</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>112.197</v>
-      </c>
-      <c r="G8" s="8">
-        <v>37.796999999999997</v>
-      </c>
-      <c r="H8" s="8">
-        <v>72.66</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>110.45699999999999</v>
-      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9">
-        <v>111.72199999999999</v>
-      </c>
-      <c r="G9" s="8">
-        <v>38.095999999999997</v>
-      </c>
-      <c r="H9" s="8">
-        <v>66.408000000000001</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>104.50399999999999</v>
-      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>110.35599999999999</v>
-      </c>
-      <c r="G10" s="8">
-        <v>35.651000000000003</v>
-      </c>
-      <c r="H10" s="8">
-        <v>99.164000000000001</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>134.815</v>
-      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>100</v>
       </c>
-      <c r="F11">
-        <v>124.733</v>
-      </c>
-      <c r="G11" s="8">
-        <v>24.04</v>
-      </c>
-      <c r="H11" s="8">
-        <v>38.581000000000003</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>62.621000000000002</v>
-      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
@@ -2884,19 +2831,9 @@
       <c r="E12" s="1">
         <v>75</v>
       </c>
-      <c r="F12">
-        <v>120.923</v>
-      </c>
-      <c r="G12" s="8">
-        <v>46.073</v>
-      </c>
-      <c r="H12" s="8">
-        <v>69.718000000000004</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>115.791</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
@@ -2905,19 +2842,9 @@
       <c r="E13" s="1">
         <v>50</v>
       </c>
-      <c r="F13">
-        <v>119.26</v>
-      </c>
-      <c r="G13" s="8">
-        <v>43.774000000000001</v>
-      </c>
-      <c r="H13" s="8">
-        <v>54.201000000000001</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>97.974999999999994</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
@@ -2926,19 +2853,9 @@
       <c r="E14" s="1">
         <v>25</v>
       </c>
-      <c r="F14">
-        <v>116.974</v>
-      </c>
-      <c r="G14" s="8">
-        <v>41.463999999999999</v>
-      </c>
-      <c r="H14" s="8">
-        <v>51.8</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>93.263999999999996</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
@@ -2947,40 +2864,20 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>117.69199999999999</v>
-      </c>
-      <c r="G15" s="8">
-        <v>40.99</v>
-      </c>
-      <c r="H15" s="8">
-        <v>117.18</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>158.17000000000002</v>
-      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>100</v>
       </c>
-      <c r="F16">
-        <v>201.291</v>
-      </c>
-      <c r="G16" s="8">
-        <v>52.338000000000001</v>
-      </c>
-      <c r="H16" s="8">
-        <v>71.963999999999999</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>124.30199999999999</v>
-      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
@@ -2989,19 +2886,9 @@
       <c r="E17" s="1">
         <v>75</v>
       </c>
-      <c r="F17">
-        <v>184.66499999999999</v>
-      </c>
-      <c r="G17" s="8">
-        <v>71.465999999999994</v>
-      </c>
-      <c r="H17" s="8">
-        <v>103.23</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>174.696</v>
-      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
@@ -3010,19 +2897,9 @@
       <c r="E18" s="1">
         <v>50</v>
       </c>
-      <c r="F18">
-        <v>182.256</v>
-      </c>
-      <c r="G18" s="8">
-        <v>66.373999999999995</v>
-      </c>
-      <c r="H18" s="8">
-        <v>75.816000000000003</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>142.19</v>
-      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
@@ -3031,19 +2908,9 @@
       <c r="E19" s="1">
         <v>25</v>
       </c>
-      <c r="F19">
-        <v>196.31</v>
-      </c>
-      <c r="G19" s="8">
-        <v>66.528999999999996</v>
-      </c>
-      <c r="H19" s="8">
-        <v>32.530999999999999</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>99.06</v>
-      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
@@ -3052,19 +2919,9 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>151.81700000000001</v>
-      </c>
-      <c r="G20" s="8">
-        <v>62.884</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>65.159000000000006</v>
-      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3079,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,17 +2972,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3137,44 +2994,47 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>100</v>
       </c>
       <c r="F6">
-        <v>897.06700000000001</v>
-      </c>
-      <c r="G6" s="8">
-        <v>96.575000000000003</v>
-      </c>
-      <c r="H6" s="8">
-        <v>124.52800000000001</v>
-      </c>
-      <c r="I6" s="8">
+        <v>894.82100000000003</v>
+      </c>
+      <c r="G6" s="6">
+        <v>104.786</v>
+      </c>
+      <c r="H6" s="6">
+        <v>130.29</v>
+      </c>
+      <c r="I6" s="2">
         <f>G6+H6</f>
-        <v>221.10300000000001</v>
+        <v>235.07599999999999</v>
+      </c>
+      <c r="K6" s="15">
+        <v>691.84613200000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3185,17 +3045,20 @@
         <v>75</v>
       </c>
       <c r="F7">
-        <v>896.20299999999997</v>
-      </c>
-      <c r="G7" s="8">
-        <v>232.98400000000001</v>
-      </c>
-      <c r="H7" s="8">
-        <v>51.668999999999997</v>
-      </c>
-      <c r="I7" s="8">
+        <v>887.51</v>
+      </c>
+      <c r="G7" s="6">
+        <v>248.13499999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>53.125999999999998</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" ref="I7:I25" si="0">G7+H7</f>
-        <v>284.65300000000002</v>
+        <v>301.26099999999997</v>
+      </c>
+      <c r="K7" s="15">
+        <v>697.43108700000005</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3206,17 +3069,20 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>890.39599999999996</v>
-      </c>
-      <c r="G8" s="8">
-        <v>242.21600000000001</v>
-      </c>
-      <c r="H8" s="8">
-        <v>53.844000000000001</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>296.06</v>
+        <v>903.68299999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>255.22900000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>52.41</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>307.63900000000001</v>
+      </c>
+      <c r="K8" s="15">
+        <v>681.21910100000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3227,17 +3093,20 @@
         <v>25</v>
       </c>
       <c r="F9">
-        <v>896.39800000000002</v>
-      </c>
-      <c r="G9" s="8">
-        <v>248.773</v>
-      </c>
-      <c r="H9" s="8">
-        <v>45.707999999999998</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>294.48099999999999</v>
+        <v>887.06299999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <v>260.70800000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>50.298000000000002</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>311.00600000000003</v>
+      </c>
+      <c r="K9" s="15">
+        <v>688.89188799999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3248,38 +3117,44 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.707999999999998</v>
-      </c>
-      <c r="G10" s="8">
-        <v>247.554</v>
-      </c>
-      <c r="H10" s="8">
-        <v>46.679000000000002</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>294.233</v>
+        <v>885.26400000000001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>264.35300000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>46.723999999999997</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>311.077</v>
+      </c>
+      <c r="K10" s="15">
+        <v>693.75109699999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>985.11199999999997</v>
-      </c>
-      <c r="G11" s="8">
-        <v>195.08699999999999</v>
-      </c>
-      <c r="H11" s="8">
-        <v>149.70099999999999</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>344.78800000000001</v>
+        <v>995.70600000000002</v>
+      </c>
+      <c r="G11" s="6">
+        <v>160.73599999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>170.75299999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>331.48899999999998</v>
+      </c>
+      <c r="K11" s="15">
+        <v>694.44012599999996</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3290,17 +3165,20 @@
         <v>75</v>
       </c>
       <c r="F12">
-        <v>956.64300000000003</v>
-      </c>
-      <c r="G12" s="8">
-        <v>280.37900000000002</v>
-      </c>
-      <c r="H12" s="8">
-        <v>65.350999999999999</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>345.73</v>
+        <v>995.005</v>
+      </c>
+      <c r="G12" s="6">
+        <v>296.17500000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>76.287999999999997</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>372.46300000000002</v>
+      </c>
+      <c r="K12" s="15">
+        <v>706.38108299999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3311,17 +3189,20 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>948.16200000000003</v>
-      </c>
-      <c r="G13" s="8">
-        <v>320.892</v>
-      </c>
-      <c r="H13" s="8">
-        <v>65.141000000000005</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>386.03300000000002</v>
+        <v>953.19799999999998</v>
+      </c>
+      <c r="G13" s="6">
+        <v>329.887</v>
+      </c>
+      <c r="H13" s="6">
+        <v>66.245000000000005</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>396.13200000000001</v>
+      </c>
+      <c r="K13" s="15">
+        <v>789.29400399999997</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3332,17 +3213,20 @@
         <v>25</v>
       </c>
       <c r="F14">
-        <v>938.33</v>
-      </c>
-      <c r="G14" s="8">
-        <v>350.35300000000001</v>
-      </c>
-      <c r="H14" s="8">
-        <v>70.260999999999996</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>420.61400000000003</v>
+        <v>931.57</v>
+      </c>
+      <c r="G14" s="6">
+        <v>367.8</v>
+      </c>
+      <c r="H14" s="6">
+        <v>70.03</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>437.83000000000004</v>
+      </c>
+      <c r="K14" s="15">
+        <v>691.78700400000002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3353,41 +3237,47 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>926.26400000000001</v>
-      </c>
-      <c r="G15" s="8">
-        <v>384.58800000000002</v>
-      </c>
-      <c r="H15" s="8">
-        <v>79.450999999999993</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>464.03899999999999</v>
+        <v>926.69600000000003</v>
+      </c>
+      <c r="G15" s="6">
+        <v>387.98</v>
+      </c>
+      <c r="H15" s="6">
+        <v>76.864999999999995</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>464.84500000000003</v>
+      </c>
+      <c r="K15" s="15">
+        <v>659.514904</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>100</v>
       </c>
       <c r="F16">
-        <v>1072.03</v>
-      </c>
-      <c r="G16" s="8">
-        <v>129.58600000000001</v>
-      </c>
-      <c r="H16" s="8">
-        <v>134.00299999999999</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>263.589</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1111.32</v>
+      </c>
+      <c r="G16" s="6">
+        <v>127.72799999999999</v>
+      </c>
+      <c r="H16" s="6">
+        <v>171.99700000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>299.72500000000002</v>
+      </c>
+      <c r="K16" s="15">
+        <v>713.38200600000005</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
@@ -3395,20 +3285,23 @@
         <v>75</v>
       </c>
       <c r="F17">
-        <v>1051.52</v>
-      </c>
-      <c r="G17" s="8">
-        <v>343.89299999999997</v>
-      </c>
-      <c r="H17" s="8">
-        <v>68.108999999999995</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>412.00199999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1047.77</v>
+      </c>
+      <c r="G17" s="6">
+        <v>354.39699999999999</v>
+      </c>
+      <c r="H17" s="6">
+        <v>82.509</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>436.90600000000001</v>
+      </c>
+      <c r="K17" s="15">
+        <v>703.46093199999996</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3416,20 +3309,23 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>1037.6199999999999</v>
-      </c>
-      <c r="G18" s="8">
-        <v>417.803</v>
-      </c>
-      <c r="H18" s="8">
-        <v>77.513999999999996</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>495.31700000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1044.4100000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>428.661</v>
+      </c>
+      <c r="H18" s="6">
+        <v>88.962999999999994</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>517.62400000000002</v>
+      </c>
+      <c r="K18" s="15">
+        <v>686.26713800000005</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3437,20 +3333,23 @@
         <v>25</v>
       </c>
       <c r="F19">
-        <v>1004.53</v>
-      </c>
-      <c r="G19" s="8">
-        <v>477.041</v>
-      </c>
-      <c r="H19" s="8">
-        <v>88.045000000000002</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>565.08600000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1016.74</v>
+      </c>
+      <c r="G19" s="6">
+        <v>491.536</v>
+      </c>
+      <c r="H19" s="6">
+        <v>88.391999999999996</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>579.928</v>
+      </c>
+      <c r="K19" s="15">
+        <v>659.861088</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3458,41 +3357,47 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>986.92499999999995</v>
-      </c>
-      <c r="G20" s="8">
-        <v>536.77</v>
-      </c>
-      <c r="H20" s="8">
-        <v>94.686999999999998</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>631.45699999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
+        <v>978.23199999999997</v>
+      </c>
+      <c r="G20" s="6">
+        <v>528.78499999999997</v>
+      </c>
+      <c r="H20" s="6">
+        <v>94.947999999999993</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>623.73299999999995</v>
+      </c>
+      <c r="K20" s="15">
+        <v>635.29705999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>100</v>
       </c>
       <c r="F21">
-        <v>1837.35</v>
-      </c>
-      <c r="G21" s="8">
-        <v>232.66</v>
-      </c>
-      <c r="H21" s="8">
-        <v>327.53500000000003</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>560.19500000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1814.15</v>
+      </c>
+      <c r="G21" s="6">
+        <v>231.262</v>
+      </c>
+      <c r="H21" s="6">
+        <v>273.99599999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>505.25799999999998</v>
+      </c>
+      <c r="K21" s="15">
+        <v>874.43208700000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
@@ -3500,20 +3405,23 @@
         <v>75</v>
       </c>
       <c r="F22">
-        <v>1719.2</v>
-      </c>
-      <c r="G22" s="8">
-        <v>718.40899999999999</v>
-      </c>
-      <c r="H22" s="8">
-        <v>436.14100000000002</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="0"/>
-        <v>1154.55</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1716.26</v>
+      </c>
+      <c r="G22" s="6">
+        <v>844.21299999999997</v>
+      </c>
+      <c r="H22" s="6">
+        <v>329.899</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>1174.1120000000001</v>
+      </c>
+      <c r="K22" s="15">
+        <v>803.34997199999998</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
@@ -3521,20 +3429,23 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>1651.87</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1087.8800000000001</v>
-      </c>
-      <c r="H23" s="8">
-        <v>345.12799999999999</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="0"/>
-        <v>1433.008</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1635.6</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1101.04</v>
+      </c>
+      <c r="H23" s="6">
+        <v>345.05799999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>1446.098</v>
+      </c>
+      <c r="K23" s="15">
+        <v>777.82893200000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
@@ -3542,20 +3453,23 @@
         <v>25</v>
       </c>
       <c r="F24">
-        <v>345.12799999999999</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1488.13</v>
-      </c>
-      <c r="H24" s="8">
-        <v>319.99900000000002</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="0"/>
-        <v>1808.1290000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1541.79</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1375.86</v>
+      </c>
+      <c r="H24" s="6">
+        <v>321.63299999999998</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>1697.4929999999999</v>
+      </c>
+      <c r="K24" s="15">
+        <v>598.42586500000004</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
@@ -3563,17 +3477,20 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1595.62</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1747.47</v>
-      </c>
-      <c r="H25" s="8">
-        <v>278.53300000000002</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="0"/>
-        <v>2026.0030000000002</v>
+        <v>1438.45</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1749.7</v>
+      </c>
+      <c r="H25" s="6">
+        <v>278.80599999999998</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>2028.5060000000001</v>
+      </c>
+      <c r="K25" s="15">
+        <v>525.43091800000002</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results/result analysis_final.xlsx
+++ b/Results/Results/result analysis_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="RMAT24" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,12 +151,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -241,20 +235,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,17 +565,17 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
@@ -598,13 +590,13 @@
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -622,17 +614,20 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <v>2144.19</v>
+        <v>2277.7399999999998</v>
       </c>
       <c r="H7" s="6">
-        <v>235.32900000000001</v>
+        <v>240.572</v>
       </c>
       <c r="I7" s="6">
-        <v>258.14999999999998</v>
+        <v>255.791</v>
       </c>
       <c r="J7" s="2">
         <f>H7+I7</f>
-        <v>493.47899999999998</v>
+        <v>496.363</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1988.4920119999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -642,14 +637,21 @@
       <c r="F8" s="1">
         <v>75</v>
       </c>
-      <c r="G8" s="11">
-        <v>2153.52</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14">
+      <c r="G8" s="5">
+        <v>2143.44</v>
+      </c>
+      <c r="H8" s="6">
+        <v>541.23500000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>164.47200000000001</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" ref="J8:J26" si="0">H8+I8</f>
-        <v>0</v>
+        <v>705.70699999999999</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1932.6429370000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -659,12 +661,21 @@
       <c r="F9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G9" s="5">
+        <v>2145.86</v>
+      </c>
+      <c r="H9" s="6">
+        <v>539.39800000000002</v>
+      </c>
+      <c r="I9" s="6">
+        <v>217.97399999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>757.37200000000007</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1914.3331049999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -674,12 +685,21 @@
       <c r="F10" s="1">
         <v>25</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G10" s="5">
+        <v>2140.8200000000002</v>
+      </c>
+      <c r="H10" s="6">
+        <v>547.61500000000001</v>
+      </c>
+      <c r="I10" s="6">
+        <v>315.536</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>863.15100000000007</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1902.544022</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -689,12 +709,21 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G11" s="5">
+        <v>2171.35</v>
+      </c>
+      <c r="H11" s="6">
+        <v>525.21199999999999</v>
+      </c>
+      <c r="I11" s="6">
+        <v>315.74099999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>840.95299999999997</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1911.00812</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -717,6 +746,9 @@
         <f t="shared" si="0"/>
         <v>543.53300000000002</v>
       </c>
+      <c r="L12" s="11">
+        <v>1962.653875</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
@@ -738,6 +770,9 @@
         <f t="shared" si="0"/>
         <v>953.65300000000002</v>
       </c>
+      <c r="L13" s="11">
+        <v>1971.4589120000001</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
@@ -759,6 +794,9 @@
         <f t="shared" si="0"/>
         <v>1123.675</v>
       </c>
+      <c r="L14" s="11">
+        <v>1929.384947</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
@@ -780,6 +818,9 @@
         <f t="shared" si="0"/>
         <v>1266.674</v>
       </c>
+      <c r="L15" s="11">
+        <v>1997.2069260000001</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
@@ -801,8 +842,11 @@
         <f t="shared" si="0"/>
         <v>1522.346</v>
       </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="11">
+        <v>1936.9108679999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
@@ -822,8 +866,11 @@
         <f t="shared" si="0"/>
         <v>590.46100000000001</v>
       </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="11">
+        <v>2112.9531860000002</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
@@ -843,8 +890,11 @@
         <f t="shared" si="0"/>
         <v>1197.0350000000001</v>
       </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="11">
+        <v>1997.0278740000001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
@@ -864,8 +914,11 @@
         <f t="shared" si="0"/>
         <v>1574.643</v>
       </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="11">
+        <v>1962.9662040000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
@@ -885,8 +938,11 @@
         <f t="shared" si="0"/>
         <v>2075.6350000000002</v>
       </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="11">
+        <v>1954.1418550000001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
@@ -906,8 +962,11 @@
         <f t="shared" si="0"/>
         <v>2103.4920000000002</v>
       </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="11">
+        <v>1900.4900459999999</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="7" t="s">
         <v>18</v>
       </c>
@@ -927,8 +986,11 @@
         <f t="shared" si="0"/>
         <v>718.81400000000008</v>
       </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="11">
+        <v>2416.2631029999998</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
@@ -948,8 +1010,11 @@
         <f t="shared" si="0"/>
         <v>2864.6749999999997</v>
       </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="11">
+        <v>2371.4489939999999</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
@@ -969,8 +1034,11 @@
         <f t="shared" si="0"/>
         <v>3523.7740000000003</v>
       </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L24" s="11">
+        <v>2163.895845</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
@@ -990,8 +1058,11 @@
         <f t="shared" si="0"/>
         <v>3724.8339999999998</v>
       </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L25" s="11">
+        <v>2022.686958</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1010,6 +1081,9 @@
       <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>3174.04</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1894.1359520000001</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1100,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,17 +1136,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1087,19 +1161,19 @@
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1123,7 +1197,7 @@
         <f>G7+H7</f>
         <v>85.771000000000001</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="12">
         <v>369.43888700000002</v>
       </c>
     </row>
@@ -1147,7 +1221,7 @@
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>262.80099999999999</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="12">
         <v>355.087042</v>
       </c>
     </row>
@@ -1171,7 +1245,7 @@
         <f t="shared" si="0"/>
         <v>271.245</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="12">
         <v>350.59309000000002</v>
       </c>
     </row>
@@ -1195,7 +1269,7 @@
         <f t="shared" si="0"/>
         <v>305.90600000000001</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="12">
         <v>345.705986</v>
       </c>
     </row>
@@ -1219,7 +1293,7 @@
         <f t="shared" si="0"/>
         <v>291.16200000000003</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="12">
         <v>339.08319499999999</v>
       </c>
     </row>
@@ -1243,7 +1317,7 @@
         <f t="shared" si="0"/>
         <v>108.715</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="12">
         <v>362.36405400000001</v>
       </c>
     </row>
@@ -1267,7 +1341,7 @@
         <f t="shared" si="0"/>
         <v>341.685</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="12">
         <v>355.015039</v>
       </c>
     </row>
@@ -1291,7 +1365,7 @@
         <f t="shared" si="0"/>
         <v>465.36399999999998</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="12">
         <v>354.67505499999999</v>
       </c>
     </row>
@@ -1315,7 +1389,7 @@
         <f t="shared" si="0"/>
         <v>751.28500000000008</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="12">
         <v>338.23704700000002</v>
       </c>
     </row>
@@ -1339,7 +1413,7 @@
         <f t="shared" si="0"/>
         <v>811.72699999999998</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="12">
         <v>324.71203800000001</v>
       </c>
     </row>
@@ -1363,7 +1437,7 @@
         <f t="shared" si="0"/>
         <v>248.19299999999998</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="12">
         <v>385.24699199999998</v>
       </c>
     </row>
@@ -1387,7 +1461,7 @@
         <f t="shared" si="0"/>
         <v>532.83199999999999</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="12">
         <v>360.80908799999997</v>
       </c>
     </row>
@@ -1411,7 +1485,7 @@
         <f t="shared" si="0"/>
         <v>913.27</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="12">
         <v>352.956772</v>
       </c>
     </row>
@@ -1435,7 +1509,7 @@
         <f t="shared" si="0"/>
         <v>1078.2650000000001</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="12">
         <v>336.36784599999999</v>
       </c>
     </row>
@@ -1459,7 +1533,7 @@
         <f t="shared" si="0"/>
         <v>1266.0409999999999</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="12">
         <v>318.16101099999997</v>
       </c>
     </row>
@@ -1480,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:I21"/>
     </sheetView>
   </sheetViews>
@@ -1517,17 +1591,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1757,7 +1831,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,17 +1867,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1824,7 +1898,7 @@
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1854,7 +1928,7 @@
         <f>G7+H7</f>
         <v>109.721</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <v>388.22913199999999</v>
       </c>
     </row>
@@ -1878,7 +1952,7 @@
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>177.91200000000001</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>348.92988200000002</v>
       </c>
     </row>
@@ -1902,7 +1976,7 @@
         <f t="shared" si="0"/>
         <v>208.32499999999999</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="11">
         <v>385.38193699999999</v>
       </c>
     </row>
@@ -1926,7 +2000,7 @@
         <f t="shared" si="0"/>
         <v>233.274</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>374.88102900000001</v>
       </c>
     </row>
@@ -1950,7 +2024,7 @@
         <f t="shared" si="0"/>
         <v>227.28100000000001</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>366.29891400000002</v>
       </c>
     </row>
@@ -1974,7 +2048,7 @@
         <f t="shared" si="0"/>
         <v>145.626</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="11">
         <v>397.81713500000001</v>
       </c>
     </row>
@@ -1998,7 +2072,7 @@
         <f t="shared" si="0"/>
         <v>289.38499999999999</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="11">
         <v>387.14194300000003</v>
       </c>
     </row>
@@ -2022,7 +2096,7 @@
         <f t="shared" si="0"/>
         <v>404.05599999999998</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="11">
         <v>380.256891</v>
       </c>
     </row>
@@ -2046,7 +2120,7 @@
         <f t="shared" si="0"/>
         <v>459.66399999999999</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="11">
         <v>369.19307700000002</v>
       </c>
     </row>
@@ -2070,7 +2144,7 @@
         <f t="shared" si="0"/>
         <v>573.60199999999998</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="11">
         <v>359.47298999999998</v>
       </c>
     </row>
@@ -2094,7 +2168,7 @@
         <f t="shared" si="0"/>
         <v>217.761</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="11">
         <v>417.29807899999997</v>
       </c>
     </row>
@@ -2118,7 +2192,7 @@
         <f t="shared" si="0"/>
         <v>421.11600000000004</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="11">
         <v>391.49594300000001</v>
       </c>
     </row>
@@ -2142,7 +2216,7 @@
         <f t="shared" si="0"/>
         <v>637.60699999999997</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="11">
         <v>384.86885999999998</v>
       </c>
     </row>
@@ -2166,7 +2240,7 @@
         <f t="shared" si="0"/>
         <v>841.49699999999996</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="11">
         <v>368.16287</v>
       </c>
     </row>
@@ -2190,7 +2264,7 @@
         <f t="shared" si="0"/>
         <v>999.3420000000001</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="11">
         <v>361.533165</v>
       </c>
     </row>
@@ -2212,7 +2286,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,17 +2321,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2272,13 +2346,13 @@
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2308,7 +2382,7 @@
         <f>G7+H7</f>
         <v>82.490000000000009</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <v>344.90799900000002</v>
       </c>
     </row>
@@ -2332,7 +2406,7 @@
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>126.277</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>330.68084700000003</v>
       </c>
     </row>
@@ -2356,7 +2430,7 @@
         <f t="shared" si="0"/>
         <v>138.19999999999999</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="11">
         <v>324.31197200000003</v>
       </c>
     </row>
@@ -2380,7 +2454,7 @@
         <f t="shared" si="0"/>
         <v>139.166</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>329.32901399999997</v>
       </c>
     </row>
@@ -2404,7 +2478,7 @@
         <f t="shared" si="0"/>
         <v>151.92099999999999</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>322.77584100000001</v>
       </c>
     </row>
@@ -2428,7 +2502,7 @@
         <f t="shared" si="0"/>
         <v>188.66399999999999</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="11">
         <v>345.79110100000003</v>
       </c>
     </row>
@@ -2452,7 +2526,7 @@
         <f t="shared" si="0"/>
         <v>190.21899999999999</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="11">
         <v>331.00795699999998</v>
       </c>
     </row>
@@ -2476,7 +2550,7 @@
         <f t="shared" si="0"/>
         <v>268.22199999999998</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="11">
         <v>334.06806</v>
       </c>
     </row>
@@ -2500,7 +2574,7 @@
         <f t="shared" si="0"/>
         <v>287.23099999999999</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="11">
         <v>315.76585799999998</v>
       </c>
     </row>
@@ -2524,7 +2598,7 @@
         <f t="shared" si="0"/>
         <v>314.94100000000003</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="11">
         <v>323.12393200000002</v>
       </c>
     </row>
@@ -2548,7 +2622,7 @@
         <f t="shared" si="0"/>
         <v>163.41800000000001</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="11">
         <v>362.47611000000001</v>
       </c>
     </row>
@@ -2572,7 +2646,7 @@
         <f t="shared" si="0"/>
         <v>283.02800000000002</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="11">
         <v>345.62516199999999</v>
       </c>
     </row>
@@ -2596,7 +2670,7 @@
         <f t="shared" si="0"/>
         <v>371.57799999999997</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="11">
         <v>326.30801200000002</v>
       </c>
     </row>
@@ -2620,7 +2694,7 @@
         <f t="shared" si="0"/>
         <v>491.49699999999996</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="11">
         <v>306.70690500000001</v>
       </c>
     </row>
@@ -2644,7 +2718,7 @@
         <f t="shared" si="0"/>
         <v>505.45800000000003</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="11">
         <v>418.59698300000002</v>
       </c>
     </row>
@@ -2717,17 +2791,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -2936,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -2972,17 +3046,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3033,7 +3107,7 @@
         <f>G6+H6</f>
         <v>235.07599999999999</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <v>691.84613200000001</v>
       </c>
     </row>
@@ -3057,7 +3131,7 @@
         <f t="shared" ref="I7:I25" si="0">G7+H7</f>
         <v>301.26099999999997</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <v>697.43108700000005</v>
       </c>
     </row>
@@ -3081,7 +3155,7 @@
         <f t="shared" si="0"/>
         <v>307.63900000000001</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>681.21910100000002</v>
       </c>
     </row>
@@ -3105,7 +3179,7 @@
         <f t="shared" si="0"/>
         <v>311.00600000000003</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="11">
         <v>688.89188799999999</v>
       </c>
     </row>
@@ -3129,7 +3203,7 @@
         <f t="shared" si="0"/>
         <v>311.077</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>693.75109699999996</v>
       </c>
     </row>
@@ -3153,7 +3227,7 @@
         <f t="shared" si="0"/>
         <v>331.48899999999998</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>694.44012599999996</v>
       </c>
     </row>
@@ -3177,7 +3251,7 @@
         <f t="shared" si="0"/>
         <v>372.46300000000002</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="11">
         <v>706.38108299999999</v>
       </c>
     </row>
@@ -3201,7 +3275,7 @@
         <f t="shared" si="0"/>
         <v>396.13200000000001</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="11">
         <v>789.29400399999997</v>
       </c>
     </row>
@@ -3225,7 +3299,7 @@
         <f t="shared" si="0"/>
         <v>437.83000000000004</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="11">
         <v>691.78700400000002</v>
       </c>
     </row>
@@ -3249,7 +3323,7 @@
         <f t="shared" si="0"/>
         <v>464.84500000000003</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="11">
         <v>659.514904</v>
       </c>
     </row>
@@ -3273,7 +3347,7 @@
         <f t="shared" si="0"/>
         <v>299.72500000000002</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="11">
         <v>713.38200600000005</v>
       </c>
     </row>
@@ -3297,7 +3371,7 @@
         <f t="shared" si="0"/>
         <v>436.90600000000001</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="11">
         <v>703.46093199999996</v>
       </c>
     </row>
@@ -3321,7 +3395,7 @@
         <f t="shared" si="0"/>
         <v>517.62400000000002</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="11">
         <v>686.26713800000005</v>
       </c>
     </row>
@@ -3345,7 +3419,7 @@
         <f t="shared" si="0"/>
         <v>579.928</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="11">
         <v>659.861088</v>
       </c>
     </row>
@@ -3369,7 +3443,7 @@
         <f t="shared" si="0"/>
         <v>623.73299999999995</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="11">
         <v>635.29705999999999</v>
       </c>
     </row>
@@ -3393,7 +3467,7 @@
         <f t="shared" si="0"/>
         <v>505.25799999999998</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="11">
         <v>874.43208700000002</v>
       </c>
     </row>
@@ -3417,7 +3491,7 @@
         <f t="shared" si="0"/>
         <v>1174.1120000000001</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="11">
         <v>803.34997199999998</v>
       </c>
     </row>
@@ -3441,7 +3515,7 @@
         <f t="shared" si="0"/>
         <v>1446.098</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="11">
         <v>777.82893200000001</v>
       </c>
     </row>
@@ -3465,7 +3539,7 @@
         <f t="shared" si="0"/>
         <v>1697.4929999999999</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="11">
         <v>598.42586500000004</v>
       </c>
     </row>
@@ -3489,7 +3563,7 @@
         <f t="shared" si="0"/>
         <v>2028.5060000000001</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="11">
         <v>525.43091800000002</v>
       </c>
     </row>

--- a/Results/Results/result analysis_final.xlsx
+++ b/Results/Results/result analysis_final.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
   <si>
     <t>Graph name:</t>
   </si>
@@ -109,6 +109,12 @@
   <si>
     <t>soc-orkut_wp_sor</t>
   </si>
+  <si>
+    <t>Asynchrony code time</t>
+  </si>
+  <si>
+    <t>SSSP update Async(in millisec)</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +163,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -247,6 +265,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,18 +550,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +578,7 @@
         <v>16777215</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -562,7 +586,7 @@
         <v>269022768</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="15" t="s">
@@ -576,8 +600,11 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
@@ -602,11 +629,14 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
@@ -622,15 +652,18 @@
       <c r="I7" s="6">
         <v>255.791</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="18">
         <f>H7+I7</f>
         <v>496.363</v>
       </c>
       <c r="L7" s="11">
         <v>1988.4920119999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="18">
+        <v>583.33000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
@@ -646,15 +679,18 @@
       <c r="I8" s="6">
         <v>164.47200000000001</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="18">
         <f t="shared" ref="J8:J26" si="0">H8+I8</f>
         <v>705.70699999999999</v>
       </c>
       <c r="L8" s="6">
         <v>1932.6429370000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="18">
+        <v>746.80600000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
@@ -670,15 +706,18 @@
       <c r="I9" s="6">
         <v>217.97399999999999</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="18">
         <f t="shared" si="0"/>
         <v>757.37200000000007</v>
       </c>
       <c r="L9" s="6">
         <v>1914.3331049999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="18">
+        <v>750.01800000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,15 +733,18 @@
       <c r="I10" s="6">
         <v>315.536</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="18">
         <f t="shared" si="0"/>
         <v>863.15100000000007</v>
       </c>
       <c r="L10" s="6">
         <v>1902.544022</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="18">
+        <v>802.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
@@ -718,15 +760,18 @@
       <c r="I11" s="6">
         <v>315.74099999999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="18">
         <f t="shared" si="0"/>
         <v>840.95299999999997</v>
       </c>
       <c r="L11" s="6">
         <v>1911.00812</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="18">
+        <v>801.827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
@@ -742,15 +787,18 @@
       <c r="I12" s="6">
         <v>292.36700000000002</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="18">
         <f t="shared" si="0"/>
         <v>543.53300000000002</v>
       </c>
       <c r="L12" s="11">
         <v>1962.653875</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="18">
+        <v>617.89300000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
@@ -766,15 +814,18 @@
       <c r="I13" s="6">
         <v>377.166</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="18">
         <f t="shared" si="0"/>
         <v>953.65300000000002</v>
       </c>
       <c r="L13" s="11">
         <v>1971.4589120000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="18">
+        <v>855.12199999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
@@ -790,15 +841,18 @@
       <c r="I14" s="6">
         <v>545.21199999999999</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="18">
         <f t="shared" si="0"/>
         <v>1123.675</v>
       </c>
       <c r="L14" s="11">
         <v>1929.384947</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="18">
+        <v>987.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
@@ -814,15 +868,18 @@
       <c r="I15" s="6">
         <v>679.75699999999995</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="18">
         <f t="shared" si="0"/>
         <v>1266.674</v>
       </c>
       <c r="L15" s="11">
         <v>1997.2069260000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="18">
+        <v>1132.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
@@ -838,15 +895,18 @@
       <c r="I16" s="6">
         <v>916.73500000000001</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="18">
         <f t="shared" si="0"/>
         <v>1522.346</v>
       </c>
       <c r="L16" s="11">
         <v>1936.9108679999999</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="18">
+        <v>1226.06</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
@@ -862,15 +922,18 @@
       <c r="I17" s="6">
         <v>318.7</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="18">
         <f t="shared" si="0"/>
         <v>590.46100000000001</v>
       </c>
       <c r="L17" s="11">
         <v>2112.9531860000002</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="18">
+        <v>659.42700000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
@@ -886,15 +949,18 @@
       <c r="I18" s="6">
         <v>587.48400000000004</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="18">
         <f t="shared" si="0"/>
         <v>1197.0350000000001</v>
       </c>
       <c r="L18" s="11">
         <v>1997.0278740000001</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="18">
+        <v>1079.3499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
@@ -910,15 +976,18 @@
       <c r="I19" s="6">
         <v>952.36400000000003</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="18">
         <f t="shared" si="0"/>
         <v>1574.643</v>
       </c>
       <c r="L19" s="11">
         <v>1962.9662040000001</v>
       </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="18">
+        <v>1447.23</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
@@ -941,8 +1010,11 @@
       <c r="L20" s="11">
         <v>1954.1418550000001</v>
       </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="18">
+        <v>1617.71</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
@@ -965,8 +1037,11 @@
       <c r="L21" s="11">
         <v>1900.4900459999999</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="18">
+        <v>1735.44</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="7" t="s">
         <v>18</v>
       </c>
@@ -982,15 +1057,18 @@
       <c r="I22" s="6">
         <v>445.935</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="18">
         <f t="shared" si="0"/>
         <v>718.81400000000008</v>
       </c>
       <c r="L22" s="11">
         <v>2416.2631029999998</v>
       </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="18">
+        <v>823.69100000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1013,8 +1091,11 @@
       <c r="L23" s="11">
         <v>2371.4489939999999</v>
       </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="18">
+        <v>2283.23</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1037,8 +1118,11 @@
       <c r="L24" s="11">
         <v>2163.895845</v>
       </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="2">
+        <v>2695.44</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1061,8 +1145,11 @@
       <c r="L25" s="11">
         <v>2022.686958</v>
       </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="2">
+        <v>2776.84</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1084,6 +1171,9 @@
       </c>
       <c r="L26" s="11">
         <v>1894.1359520000001</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2589.66</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1190,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1283,7 @@
       <c r="H7" s="6">
         <v>36.927999999999997</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="17">
         <f>G7+H7</f>
         <v>85.771000000000001</v>
       </c>
@@ -1217,7 +1307,7 @@
       <c r="H8" s="6">
         <v>125.232</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="17">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>262.80099999999999</v>
       </c>
@@ -1241,7 +1331,7 @@
       <c r="H9" s="6">
         <v>116.739</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>271.245</v>
       </c>
@@ -1265,7 +1355,7 @@
       <c r="H10" s="6">
         <v>123.438</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>305.90600000000001</v>
       </c>
@@ -1289,7 +1379,7 @@
       <c r="H11" s="6">
         <v>107.649</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="17">
         <f t="shared" si="0"/>
         <v>291.16200000000003</v>
       </c>
@@ -1313,7 +1403,7 @@
       <c r="H12" s="6">
         <v>49.027999999999999</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
         <v>108.715</v>
       </c>
@@ -1337,7 +1427,7 @@
       <c r="H13" s="6">
         <v>83.757000000000005</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="17">
         <f t="shared" si="0"/>
         <v>341.685</v>
       </c>
@@ -1433,7 +1523,7 @@
       <c r="H17" s="6">
         <v>127.657</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="18">
         <f t="shared" si="0"/>
         <v>248.19299999999998</v>
       </c>
@@ -1547,6 +1637,7 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1831,7 +1922,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,7 +2015,7 @@
       <c r="H7" s="6">
         <v>55.731000000000002</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="18">
         <f>G7+H7</f>
         <v>109.721</v>
       </c>
@@ -1948,7 +2039,7 @@
       <c r="H8" s="6">
         <v>45.005000000000003</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="18">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>177.91200000000001</v>
       </c>
@@ -1972,7 +2063,7 @@
       <c r="H9" s="6">
         <v>49.712000000000003</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="18">
         <f t="shared" si="0"/>
         <v>208.32499999999999</v>
       </c>
@@ -1996,7 +2087,7 @@
       <c r="H10" s="6">
         <v>50.183</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="18">
         <f t="shared" si="0"/>
         <v>233.274</v>
       </c>
@@ -2020,7 +2111,7 @@
       <c r="H11" s="6">
         <v>48.177</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="18">
         <f t="shared" si="0"/>
         <v>227.28100000000001</v>
       </c>
@@ -2044,7 +2135,7 @@
       <c r="H12" s="6">
         <v>70.150000000000006</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>145.626</v>
       </c>
@@ -2068,7 +2159,7 @@
       <c r="H13" s="6">
         <v>49.701000000000001</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="18">
         <f t="shared" si="0"/>
         <v>289.38499999999999</v>
       </c>
@@ -2164,7 +2255,7 @@
       <c r="H17" s="6">
         <v>77.88</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="18">
         <f t="shared" si="0"/>
         <v>217.761</v>
       </c>
@@ -2286,7 +2377,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2469,7 @@
       <c r="H7" s="6">
         <v>33.914000000000001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="18">
         <f>G7+H7</f>
         <v>82.490000000000009</v>
       </c>
@@ -2402,7 +2493,7 @@
       <c r="H8" s="6">
         <v>25.649000000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="18">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>126.277</v>
       </c>
@@ -2426,7 +2517,7 @@
       <c r="H9" s="6">
         <v>26.713999999999999</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="18">
         <f t="shared" si="0"/>
         <v>138.19999999999999</v>
       </c>
@@ -2450,7 +2541,7 @@
       <c r="H10" s="6">
         <v>24.062999999999999</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="18">
         <f t="shared" si="0"/>
         <v>139.166</v>
       </c>
@@ -2474,7 +2565,7 @@
       <c r="H11" s="6">
         <v>27.265000000000001</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="18">
         <f t="shared" si="0"/>
         <v>151.92099999999999</v>
       </c>
@@ -2498,7 +2589,7 @@
       <c r="H12" s="6">
         <v>92.009</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>188.66399999999999</v>
       </c>
@@ -2522,7 +2613,7 @@
       <c r="H13" s="6">
         <v>36.161999999999999</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="18">
         <f t="shared" si="0"/>
         <v>190.21899999999999</v>
       </c>
@@ -2546,7 +2637,7 @@
       <c r="H14" s="6">
         <v>76.534000000000006</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="18">
         <f t="shared" si="0"/>
         <v>268.22199999999998</v>
       </c>
@@ -2570,7 +2661,7 @@
       <c r="H15" s="6">
         <v>49.676000000000002</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="18">
         <f t="shared" si="0"/>
         <v>287.23099999999999</v>
       </c>
@@ -2594,7 +2685,7 @@
       <c r="H16" s="6">
         <v>44.106999999999999</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="18">
         <f t="shared" si="0"/>
         <v>314.94100000000003</v>
       </c>
@@ -2618,7 +2709,7 @@
       <c r="H17" s="6">
         <v>89.116</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="18">
         <f t="shared" si="0"/>
         <v>163.41800000000001</v>
       </c>
@@ -2642,7 +2733,7 @@
       <c r="H18" s="6">
         <v>70.031000000000006</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="18">
         <f t="shared" si="0"/>
         <v>283.02800000000002</v>
       </c>
@@ -3011,7 +3102,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,7 +3194,7 @@
       <c r="H6" s="6">
         <v>130.29</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="18">
         <f>G6+H6</f>
         <v>235.07599999999999</v>
       </c>
@@ -3127,7 +3218,7 @@
       <c r="H7" s="6">
         <v>53.125999999999998</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="18">
         <f t="shared" ref="I7:I25" si="0">G7+H7</f>
         <v>301.26099999999997</v>
       </c>
@@ -3151,7 +3242,7 @@
       <c r="H8" s="6">
         <v>52.41</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="18">
         <f t="shared" si="0"/>
         <v>307.63900000000001</v>
       </c>
@@ -3175,7 +3266,7 @@
       <c r="H9" s="6">
         <v>50.298000000000002</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="18">
         <f t="shared" si="0"/>
         <v>311.00600000000003</v>
       </c>
@@ -3199,7 +3290,7 @@
       <c r="H10" s="6">
         <v>46.723999999999997</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="18">
         <f t="shared" si="0"/>
         <v>311.077</v>
       </c>
@@ -3223,7 +3314,7 @@
       <c r="H11" s="6">
         <v>170.75299999999999</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="18">
         <f t="shared" si="0"/>
         <v>331.48899999999998</v>
       </c>
@@ -3247,7 +3338,7 @@
       <c r="H12" s="6">
         <v>76.287999999999997</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>372.46300000000002</v>
       </c>
@@ -3271,7 +3362,7 @@
       <c r="H13" s="6">
         <v>66.245000000000005</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="18">
         <f t="shared" si="0"/>
         <v>396.13200000000001</v>
       </c>
@@ -3295,7 +3386,7 @@
       <c r="H14" s="6">
         <v>70.03</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="18">
         <f t="shared" si="0"/>
         <v>437.83000000000004</v>
       </c>
@@ -3319,7 +3410,7 @@
       <c r="H15" s="6">
         <v>76.864999999999995</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="18">
         <f t="shared" si="0"/>
         <v>464.84500000000003</v>
       </c>
@@ -3343,7 +3434,7 @@
       <c r="H16" s="6">
         <v>171.99700000000001</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="18">
         <f t="shared" si="0"/>
         <v>299.72500000000002</v>
       </c>
@@ -3367,7 +3458,7 @@
       <c r="H17" s="6">
         <v>82.509</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="18">
         <f t="shared" si="0"/>
         <v>436.90600000000001</v>
       </c>
@@ -3391,7 +3482,7 @@
       <c r="H18" s="6">
         <v>88.962999999999994</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="18">
         <f t="shared" si="0"/>
         <v>517.62400000000002</v>
       </c>
@@ -3415,7 +3506,7 @@
       <c r="H19" s="6">
         <v>88.391999999999996</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="18">
         <f t="shared" si="0"/>
         <v>579.928</v>
       </c>
@@ -3439,7 +3530,7 @@
       <c r="H20" s="6">
         <v>94.947999999999993</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="18">
         <f t="shared" si="0"/>
         <v>623.73299999999995</v>
       </c>
@@ -3463,7 +3554,7 @@
       <c r="H21" s="6">
         <v>273.99599999999998</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="18">
         <f t="shared" si="0"/>
         <v>505.25799999999998</v>
       </c>

--- a/Results/Results/result analysis_final.xlsx
+++ b/Results/Results/result analysis_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RMAT24" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="hollywood-2009" sheetId="5" r:id="rId5"/>
     <sheet name="roadNet-CA" sheetId="6" r:id="rId6"/>
     <sheet name="soc-orkut" sheetId="7" r:id="rId7"/>
+    <sheet name="RMAT25.graph500" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="29">
   <si>
     <t>Graph name:</t>
   </si>
@@ -114,6 +115,9 @@
   </si>
   <si>
     <t>SSSP update Async(in millisec)</t>
+  </si>
+  <si>
+    <t>RMAT25.graph50</t>
   </si>
 </sst>
 </file>
@@ -243,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -259,17 +263,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,18 +594,18 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="21" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -629,10 +634,10 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -652,14 +657,14 @@
       <c r="I7" s="6">
         <v>255.791</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <f>H7+I7</f>
         <v>496.363</v>
       </c>
       <c r="L7" s="11">
         <v>1988.4920119999999</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <v>583.33000000000004</v>
       </c>
     </row>
@@ -679,14 +684,14 @@
       <c r="I8" s="6">
         <v>164.47200000000001</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <f t="shared" ref="J8:J26" si="0">H8+I8</f>
         <v>705.70699999999999</v>
       </c>
       <c r="L8" s="6">
         <v>1932.6429370000001</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="16">
         <v>746.80600000000004</v>
       </c>
     </row>
@@ -706,14 +711,14 @@
       <c r="I9" s="6">
         <v>217.97399999999999</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <f t="shared" si="0"/>
         <v>757.37200000000007</v>
       </c>
       <c r="L9" s="6">
         <v>1914.3331049999999</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="16">
         <v>750.01800000000003</v>
       </c>
     </row>
@@ -733,14 +738,14 @@
       <c r="I10" s="6">
         <v>315.536</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="16">
         <f t="shared" si="0"/>
         <v>863.15100000000007</v>
       </c>
       <c r="L10" s="6">
         <v>1902.544022</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="16">
         <v>802.98</v>
       </c>
     </row>
@@ -760,14 +765,14 @@
       <c r="I11" s="6">
         <v>315.74099999999999</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <f t="shared" si="0"/>
         <v>840.95299999999997</v>
       </c>
       <c r="L11" s="6">
         <v>1911.00812</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="16">
         <v>801.827</v>
       </c>
     </row>
@@ -787,14 +792,14 @@
       <c r="I12" s="6">
         <v>292.36700000000002</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <f t="shared" si="0"/>
         <v>543.53300000000002</v>
       </c>
       <c r="L12" s="11">
         <v>1962.653875</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="16">
         <v>617.89300000000003</v>
       </c>
     </row>
@@ -814,14 +819,14 @@
       <c r="I13" s="6">
         <v>377.166</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <f t="shared" si="0"/>
         <v>953.65300000000002</v>
       </c>
       <c r="L13" s="11">
         <v>1971.4589120000001</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="16">
         <v>855.12199999999996</v>
       </c>
     </row>
@@ -841,14 +846,14 @@
       <c r="I14" s="6">
         <v>545.21199999999999</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
         <v>1123.675</v>
       </c>
       <c r="L14" s="11">
         <v>1929.384947</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="16">
         <v>987.65</v>
       </c>
     </row>
@@ -868,14 +873,14 @@
       <c r="I15" s="6">
         <v>679.75699999999995</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>1266.674</v>
       </c>
       <c r="L15" s="11">
         <v>1997.2069260000001</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="16">
         <v>1132.45</v>
       </c>
     </row>
@@ -895,14 +900,14 @@
       <c r="I16" s="6">
         <v>916.73500000000001</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="16">
         <f t="shared" si="0"/>
         <v>1522.346</v>
       </c>
       <c r="L16" s="11">
         <v>1936.9108679999999</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="16">
         <v>1226.06</v>
       </c>
     </row>
@@ -922,14 +927,14 @@
       <c r="I17" s="6">
         <v>318.7</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>590.46100000000001</v>
       </c>
       <c r="L17" s="11">
         <v>2112.9531860000002</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="16">
         <v>659.42700000000002</v>
       </c>
     </row>
@@ -949,14 +954,14 @@
       <c r="I18" s="6">
         <v>587.48400000000004</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <f t="shared" si="0"/>
         <v>1197.0350000000001</v>
       </c>
       <c r="L18" s="11">
         <v>1997.0278740000001</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="16">
         <v>1079.3499999999999</v>
       </c>
     </row>
@@ -976,14 +981,14 @@
       <c r="I19" s="6">
         <v>952.36400000000003</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="16">
         <f t="shared" si="0"/>
         <v>1574.643</v>
       </c>
       <c r="L19" s="11">
         <v>1962.9662040000001</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="16">
         <v>1447.23</v>
       </c>
     </row>
@@ -1010,7 +1015,7 @@
       <c r="L20" s="11">
         <v>1954.1418550000001</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="16">
         <v>1617.71</v>
       </c>
     </row>
@@ -1037,7 +1042,7 @@
       <c r="L21" s="11">
         <v>1900.4900459999999</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="16">
         <v>1735.44</v>
       </c>
     </row>
@@ -1057,14 +1062,14 @@
       <c r="I22" s="6">
         <v>445.935</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <f t="shared" si="0"/>
         <v>718.81400000000008</v>
       </c>
       <c r="L22" s="11">
         <v>2416.2631029999998</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="16">
         <v>823.69100000000003</v>
       </c>
     </row>
@@ -1091,7 +1096,7 @@
       <c r="L23" s="11">
         <v>2371.4489939999999</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="16">
         <v>2283.23</v>
       </c>
     </row>
@@ -1226,17 +1231,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1283,7 +1288,7 @@
       <c r="H7" s="6">
         <v>36.927999999999997</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <f>G7+H7</f>
         <v>85.771000000000001</v>
       </c>
@@ -1307,7 +1312,7 @@
       <c r="H8" s="6">
         <v>125.232</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>262.80099999999999</v>
       </c>
@@ -1331,7 +1336,7 @@
       <c r="H9" s="6">
         <v>116.739</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>271.245</v>
       </c>
@@ -1355,7 +1360,7 @@
       <c r="H10" s="6">
         <v>123.438</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <f t="shared" si="0"/>
         <v>305.90600000000001</v>
       </c>
@@ -1379,7 +1384,7 @@
       <c r="H11" s="6">
         <v>107.649</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <f t="shared" si="0"/>
         <v>291.16200000000003</v>
       </c>
@@ -1403,7 +1408,7 @@
       <c r="H12" s="6">
         <v>49.027999999999999</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
         <v>108.715</v>
       </c>
@@ -1427,7 +1432,7 @@
       <c r="H13" s="6">
         <v>83.757000000000005</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="15">
         <f t="shared" si="0"/>
         <v>341.685</v>
       </c>
@@ -1523,7 +1528,7 @@
       <c r="H17" s="6">
         <v>127.657</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <f t="shared" si="0"/>
         <v>248.19299999999998</v>
       </c>
@@ -1682,17 +1687,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1958,17 +1963,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2015,7 +2020,7 @@
       <c r="H7" s="6">
         <v>55.731000000000002</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <f>G7+H7</f>
         <v>109.721</v>
       </c>
@@ -2039,7 +2044,7 @@
       <c r="H8" s="6">
         <v>45.005000000000003</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>177.91200000000001</v>
       </c>
@@ -2063,7 +2068,7 @@
       <c r="H9" s="6">
         <v>49.712000000000003</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
         <v>208.32499999999999</v>
       </c>
@@ -2087,7 +2092,7 @@
       <c r="H10" s="6">
         <v>50.183</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
         <v>233.274</v>
       </c>
@@ -2111,7 +2116,7 @@
       <c r="H11" s="6">
         <v>48.177</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <f t="shared" si="0"/>
         <v>227.28100000000001</v>
       </c>
@@ -2135,7 +2140,7 @@
       <c r="H12" s="6">
         <v>70.150000000000006</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <f t="shared" si="0"/>
         <v>145.626</v>
       </c>
@@ -2159,7 +2164,7 @@
       <c r="H13" s="6">
         <v>49.701000000000001</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <f t="shared" si="0"/>
         <v>289.38499999999999</v>
       </c>
@@ -2255,7 +2260,7 @@
       <c r="H17" s="6">
         <v>77.88</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <f t="shared" si="0"/>
         <v>217.761</v>
       </c>
@@ -2412,17 +2417,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2469,7 +2474,7 @@
       <c r="H7" s="6">
         <v>33.914000000000001</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <f>G7+H7</f>
         <v>82.490000000000009</v>
       </c>
@@ -2493,7 +2498,7 @@
       <c r="H8" s="6">
         <v>25.649000000000001</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <f t="shared" ref="I8:I21" si="0">G8+H8</f>
         <v>126.277</v>
       </c>
@@ -2517,7 +2522,7 @@
       <c r="H9" s="6">
         <v>26.713999999999999</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
         <v>138.19999999999999</v>
       </c>
@@ -2541,7 +2546,7 @@
       <c r="H10" s="6">
         <v>24.062999999999999</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
         <v>139.166</v>
       </c>
@@ -2565,7 +2570,7 @@
       <c r="H11" s="6">
         <v>27.265000000000001</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <f t="shared" si="0"/>
         <v>151.92099999999999</v>
       </c>
@@ -2589,7 +2594,7 @@
       <c r="H12" s="6">
         <v>92.009</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <f t="shared" si="0"/>
         <v>188.66399999999999</v>
       </c>
@@ -2613,7 +2618,7 @@
       <c r="H13" s="6">
         <v>36.161999999999999</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <f t="shared" si="0"/>
         <v>190.21899999999999</v>
       </c>
@@ -2637,7 +2642,7 @@
       <c r="H14" s="6">
         <v>76.534000000000006</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <f t="shared" si="0"/>
         <v>268.22199999999998</v>
       </c>
@@ -2661,7 +2666,7 @@
       <c r="H15" s="6">
         <v>49.676000000000002</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <f t="shared" si="0"/>
         <v>287.23099999999999</v>
       </c>
@@ -2685,7 +2690,7 @@
       <c r="H16" s="6">
         <v>44.106999999999999</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <f t="shared" si="0"/>
         <v>314.94100000000003</v>
       </c>
@@ -2709,7 +2714,7 @@
       <c r="H17" s="6">
         <v>89.116</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <f t="shared" si="0"/>
         <v>163.41800000000001</v>
       </c>
@@ -2733,7 +2738,7 @@
       <c r="H18" s="6">
         <v>70.031000000000006</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <f t="shared" si="0"/>
         <v>283.02800000000002</v>
       </c>
@@ -2882,17 +2887,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3137,17 +3142,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3194,7 +3199,7 @@
       <c r="H6" s="6">
         <v>130.29</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <f>G6+H6</f>
         <v>235.07599999999999</v>
       </c>
@@ -3218,7 +3223,7 @@
       <c r="H7" s="6">
         <v>53.125999999999998</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <f t="shared" ref="I7:I25" si="0">G7+H7</f>
         <v>301.26099999999997</v>
       </c>
@@ -3242,7 +3247,7 @@
       <c r="H8" s="6">
         <v>52.41</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <f t="shared" si="0"/>
         <v>307.63900000000001</v>
       </c>
@@ -3266,7 +3271,7 @@
       <c r="H9" s="6">
         <v>50.298000000000002</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
         <v>311.00600000000003</v>
       </c>
@@ -3290,7 +3295,7 @@
       <c r="H10" s="6">
         <v>46.723999999999997</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
         <v>311.077</v>
       </c>
@@ -3314,7 +3319,7 @@
       <c r="H11" s="6">
         <v>170.75299999999999</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <f t="shared" si="0"/>
         <v>331.48899999999998</v>
       </c>
@@ -3338,7 +3343,7 @@
       <c r="H12" s="6">
         <v>76.287999999999997</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <f t="shared" si="0"/>
         <v>372.46300000000002</v>
       </c>
@@ -3362,7 +3367,7 @@
       <c r="H13" s="6">
         <v>66.245000000000005</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <f t="shared" si="0"/>
         <v>396.13200000000001</v>
       </c>
@@ -3386,7 +3391,7 @@
       <c r="H14" s="6">
         <v>70.03</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <f t="shared" si="0"/>
         <v>437.83000000000004</v>
       </c>
@@ -3410,7 +3415,7 @@
       <c r="H15" s="6">
         <v>76.864999999999995</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <f t="shared" si="0"/>
         <v>464.84500000000003</v>
       </c>
@@ -3434,7 +3439,7 @@
       <c r="H16" s="6">
         <v>171.99700000000001</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <f t="shared" si="0"/>
         <v>299.72500000000002</v>
       </c>
@@ -3458,7 +3463,7 @@
       <c r="H17" s="6">
         <v>82.509</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <f t="shared" si="0"/>
         <v>436.90600000000001</v>
       </c>
@@ -3482,7 +3487,7 @@
       <c r="H18" s="6">
         <v>88.962999999999994</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <f t="shared" si="0"/>
         <v>517.62400000000002</v>
       </c>
@@ -3506,7 +3511,7 @@
       <c r="H19" s="6">
         <v>88.391999999999996</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <f t="shared" si="0"/>
         <v>579.928</v>
       </c>
@@ -3530,7 +3535,7 @@
       <c r="H20" s="6">
         <v>94.947999999999993</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <f t="shared" si="0"/>
         <v>623.73299999999995</v>
       </c>
@@ -3554,7 +3559,7 @@
       <c r="H21" s="6">
         <v>273.99599999999998</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="16">
         <f t="shared" si="0"/>
         <v>505.25799999999998</v>
       </c>
@@ -3656,6 +3661,578 @@
       </c>
       <c r="K25" s="11">
         <v>525.43091800000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>33554431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>287295061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>2321.6</v>
+      </c>
+      <c r="G6">
+        <v>271.678</v>
+      </c>
+      <c r="H6">
+        <v>270.96600000000001</v>
+      </c>
+      <c r="I6" s="22">
+        <f>G6+H6</f>
+        <v>542.64400000000001</v>
+      </c>
+      <c r="K6">
+        <v>2406.0418610000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>2317.02</v>
+      </c>
+      <c r="G7">
+        <v>872.65499999999997</v>
+      </c>
+      <c r="H7">
+        <v>558.84100000000001</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" ref="I7:I25" si="0">G7+H7</f>
+        <v>1431.4960000000001</v>
+      </c>
+      <c r="K7">
+        <v>3407.979965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>2312.0300000000002</v>
+      </c>
+      <c r="G8">
+        <v>1052.19</v>
+      </c>
+      <c r="H8">
+        <v>585.06700000000001</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="0"/>
+        <v>1637.2570000000001</v>
+      </c>
+      <c r="K8">
+        <v>2316.7428970000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>2308.1799999999998</v>
+      </c>
+      <c r="G9">
+        <v>1168.17</v>
+      </c>
+      <c r="H9">
+        <v>592.27700000000004</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="0"/>
+        <v>1760.4470000000001</v>
+      </c>
+      <c r="K9">
+        <v>2303.6310669999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2308.86</v>
+      </c>
+      <c r="G10">
+        <v>1291</v>
+      </c>
+      <c r="H10">
+        <v>598.25199999999995</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="0"/>
+        <v>1889.252</v>
+      </c>
+      <c r="K10">
+        <v>2296.5309619999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>2420.59</v>
+      </c>
+      <c r="G11">
+        <v>286.38400000000001</v>
+      </c>
+      <c r="H11">
+        <v>656.33600000000001</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="0"/>
+        <v>942.72</v>
+      </c>
+      <c r="K11">
+        <v>2321.5749259999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>2395.7800000000002</v>
+      </c>
+      <c r="G12">
+        <v>1596.12</v>
+      </c>
+      <c r="H12">
+        <v>970.13099999999997</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2566.2509999999997</v>
+      </c>
+      <c r="K12">
+        <v>2311.5830420000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>2377.7399999999998</v>
+      </c>
+      <c r="G13">
+        <v>2419.61</v>
+      </c>
+      <c r="H13">
+        <v>568.81299999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>2988.4230000000002</v>
+      </c>
+      <c r="K13">
+        <v>2328.7220000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>2394.9499999999998</v>
+      </c>
+      <c r="G14">
+        <v>3041.1</v>
+      </c>
+      <c r="H14">
+        <v>728.29</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>3769.39</v>
+      </c>
+      <c r="K14">
+        <v>2314.6948809999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2376.39</v>
+      </c>
+      <c r="G15">
+        <v>3703.63</v>
+      </c>
+      <c r="H15">
+        <v>2023.88</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>5727.51</v>
+      </c>
+      <c r="K15">
+        <v>2304.7230239999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>2625.45</v>
+      </c>
+      <c r="G16">
+        <v>304.005</v>
+      </c>
+      <c r="H16">
+        <v>666.274</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="0"/>
+        <v>970.279</v>
+      </c>
+      <c r="K16">
+        <v>2365.3590680000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>2483.54</v>
+      </c>
+      <c r="G17">
+        <v>2463.4299999999998</v>
+      </c>
+      <c r="H17">
+        <v>925.55200000000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>3388.982</v>
+      </c>
+      <c r="K17">
+        <v>2329.5168880000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>2482.44</v>
+      </c>
+      <c r="G18">
+        <v>4188.17</v>
+      </c>
+      <c r="H18">
+        <v>1995.57</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6183.74</v>
+      </c>
+      <c r="K18">
+        <v>2302.1829130000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>2449.66</v>
+      </c>
+      <c r="G19">
+        <v>5427.75</v>
+      </c>
+      <c r="H19">
+        <v>5088.0200000000004</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>10515.77</v>
+      </c>
+      <c r="K19">
+        <v>2289.4999979999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2414.36</v>
+      </c>
+      <c r="G20">
+        <v>6657.16</v>
+      </c>
+      <c r="H20">
+        <v>6632.47</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>13289.630000000001</v>
+      </c>
+      <c r="K20">
+        <v>2388.4980679999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>3483.82</v>
+      </c>
+      <c r="G21">
+        <v>424.49</v>
+      </c>
+      <c r="H21">
+        <v>866.28</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="0"/>
+        <v>1290.77</v>
+      </c>
+      <c r="K21">
+        <v>2522.5131510000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>3256.99</v>
+      </c>
+      <c r="G22">
+        <v>9476.9599999999991</v>
+      </c>
+      <c r="H22">
+        <v>1232.17</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>10709.13</v>
+      </c>
+      <c r="K22">
+        <v>2421.3621619999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>3063.4</v>
+      </c>
+      <c r="G23">
+        <v>18291.5</v>
+      </c>
+      <c r="H23">
+        <v>1576.74</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>19868.240000000002</v>
+      </c>
+      <c r="K23">
+        <v>2306.1168189999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>3001.59</v>
+      </c>
+      <c r="G24">
+        <v>24155.5</v>
+      </c>
+      <c r="H24">
+        <v>1939.82</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>26095.32</v>
+      </c>
+      <c r="K24">
+        <v>2250.5960460000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2873.7</v>
+      </c>
+      <c r="G25">
+        <v>30391.7</v>
+      </c>
+      <c r="H25">
+        <v>6361.17</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>36752.870000000003</v>
+      </c>
+      <c r="K25">
+        <v>2131.5040589999999</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results/result analysis_final.xlsx
+++ b/Results/Results/result analysis_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RMAT24" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="30">
   <si>
     <t>Graph name:</t>
   </si>
@@ -119,6 +119,9 @@
   <si>
     <t>RMAT25.graph50</t>
   </si>
+  <si>
+    <t>25M</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -243,11 +246,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -268,13 +282,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,17 +609,17 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="19" t="s">
         <v>27</v>
       </c>
@@ -685,7 +700,7 @@
         <v>164.47200000000001</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" ref="J8:J26" si="0">H8+I8</f>
+        <f t="shared" ref="J8:J31" si="0">H8+I8</f>
         <v>705.70699999999999</v>
       </c>
       <c r="L8" s="6">
@@ -1179,6 +1194,111 @@
       </c>
       <c r="N26" s="2">
         <v>2589.66</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="7">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>2674.19</v>
+      </c>
+      <c r="H27" s="6">
+        <v>324.39</v>
+      </c>
+      <c r="I27" s="6">
+        <v>362.67500000000001</v>
+      </c>
+      <c r="J27" s="23">
+        <f t="shared" si="0"/>
+        <v>687.06500000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>2606.83</v>
+      </c>
+      <c r="H28" s="6">
+        <v>705.303</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1259.3</v>
+      </c>
+      <c r="J28" s="23">
+        <f t="shared" si="0"/>
+        <v>1964.6030000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>2505.92</v>
+      </c>
+      <c r="H29" s="6">
+        <v>742.76</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1988.75</v>
+      </c>
+      <c r="J29" s="23">
+        <f t="shared" si="0"/>
+        <v>2731.51</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>2456.61</v>
+      </c>
+      <c r="H30" s="6">
+        <v>790.20500000000004</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2268.25</v>
+      </c>
+      <c r="J30" s="23">
+        <f t="shared" si="0"/>
+        <v>3058.4549999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2755</v>
+      </c>
+      <c r="H31" s="6">
+        <v>777.33</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2374.62</v>
+      </c>
+      <c r="J31" s="23">
+        <f t="shared" si="0"/>
+        <v>3151.95</v>
       </c>
     </row>
   </sheetData>
@@ -1231,17 +1351,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1687,17 +1807,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1963,17 +2083,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2417,17 +2537,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2887,17 +3007,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3104,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,17 +3262,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3224,7 +3344,7 @@
         <v>53.125999999999998</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" ref="I7:I25" si="0">G7+H7</f>
+        <f t="shared" ref="I7:I30" si="0">G7+H7</f>
         <v>301.26099999999997</v>
       </c>
       <c r="K7" s="11">
@@ -3661,6 +3781,111 @@
       </c>
       <c r="K25" s="11">
         <v>525.43091800000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>1373.87</v>
+      </c>
+      <c r="G26" s="6">
+        <v>168.40199999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>266.73899999999998</v>
+      </c>
+      <c r="I26" s="23">
+        <f t="shared" si="0"/>
+        <v>435.14099999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>1459.23</v>
+      </c>
+      <c r="G27" s="6">
+        <v>532.85900000000004</v>
+      </c>
+      <c r="H27" s="6">
+        <v>96.248999999999995</v>
+      </c>
+      <c r="I27" s="23">
+        <f t="shared" si="0"/>
+        <v>629.10800000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>1345.02</v>
+      </c>
+      <c r="G28" s="6">
+        <v>730.05</v>
+      </c>
+      <c r="H28" s="6">
+        <v>263.88</v>
+      </c>
+      <c r="I28" s="23">
+        <f t="shared" si="0"/>
+        <v>993.93</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>1280.42</v>
+      </c>
+      <c r="G29" s="6">
+        <v>796.47</v>
+      </c>
+      <c r="H29" s="6">
+        <v>255.392</v>
+      </c>
+      <c r="I29" s="23">
+        <f t="shared" si="0"/>
+        <v>1051.8620000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1173.3399999999999</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1006.97</v>
+      </c>
+      <c r="H30" s="6">
+        <v>253.054</v>
+      </c>
+      <c r="I30" s="23">
+        <f t="shared" si="0"/>
+        <v>1260.0240000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -3714,17 +3939,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3771,7 +3996,7 @@
       <c r="H6">
         <v>270.96600000000001</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <f>G6+H6</f>
         <v>542.64400000000001</v>
       </c>
@@ -3795,7 +4020,7 @@
       <c r="H7">
         <v>558.84100000000001</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <f t="shared" ref="I7:I25" si="0">G7+H7</f>
         <v>1431.4960000000001</v>
       </c>
@@ -3819,7 +4044,7 @@
       <c r="H8">
         <v>585.06700000000001</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="20">
         <f t="shared" si="0"/>
         <v>1637.2570000000001</v>
       </c>
@@ -3843,7 +4068,7 @@
       <c r="H9">
         <v>592.27700000000004</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>1760.4470000000001</v>
       </c>
@@ -3867,7 +4092,7 @@
       <c r="H10">
         <v>598.25199999999995</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <f t="shared" si="0"/>
         <v>1889.252</v>
       </c>
@@ -3891,7 +4116,7 @@
       <c r="H11">
         <v>656.33600000000001</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <f t="shared" si="0"/>
         <v>942.72</v>
       </c>
@@ -4011,7 +4236,7 @@
       <c r="H16">
         <v>666.274</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>970.279</v>
       </c>
@@ -4131,7 +4356,7 @@
       <c r="H21">
         <v>866.28</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="20">
         <f t="shared" si="0"/>
         <v>1290.77</v>
       </c>

--- a/Results/Results/result analysis_final.xlsx
+++ b/Results/Results/result analysis_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="RMAT24" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -283,13 +283,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +610,17 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="19" t="s">
         <v>27</v>
       </c>
@@ -1212,9 +1213,12 @@
       <c r="I27" s="6">
         <v>362.67500000000001</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="24">
         <f t="shared" si="0"/>
         <v>687.06500000000005</v>
+      </c>
+      <c r="L27" s="11">
+        <v>2233.7570190000001</v>
       </c>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.25">
@@ -1233,9 +1237,12 @@
       <c r="I28" s="6">
         <v>1259.3</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="24">
         <f t="shared" si="0"/>
         <v>1964.6030000000001</v>
+      </c>
+      <c r="L28" s="11">
+        <v>2092.8738119999998</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.25">
@@ -1254,9 +1261,12 @@
       <c r="I29" s="6">
         <v>1988.75</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="21">
         <f t="shared" si="0"/>
         <v>2731.51</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2039.6358970000001</v>
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
@@ -1275,9 +1285,12 @@
       <c r="I30" s="6">
         <v>2268.25</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="21">
         <f t="shared" si="0"/>
         <v>3058.4549999999999</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1968.4400559999999</v>
       </c>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
@@ -1296,9 +1309,12 @@
       <c r="I31" s="6">
         <v>2374.62</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="21">
         <f t="shared" si="0"/>
         <v>3151.95</v>
+      </c>
+      <c r="L31" s="11">
+        <v>1910.037994</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1331,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,17 +1367,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1807,17 +1823,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2047,7 +2063,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,17 +2099,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -2502,7 +2518,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,17 +2553,17 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -3007,17 +3023,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3226,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,17 +3278,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -3799,9 +3815,12 @@
       <c r="H26" s="6">
         <v>266.73899999999998</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="24">
         <f t="shared" si="0"/>
         <v>435.14099999999996</v>
+      </c>
+      <c r="K26" s="11">
+        <v>858.44302200000004</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.25">
@@ -3820,9 +3839,12 @@
       <c r="H27" s="6">
         <v>96.248999999999995</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="24">
         <f t="shared" si="0"/>
         <v>629.10800000000006</v>
+      </c>
+      <c r="K27" s="11">
+        <v>746.59013700000003</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.25">
@@ -3841,9 +3863,12 @@
       <c r="H28" s="6">
         <v>263.88</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="21">
         <f t="shared" si="0"/>
         <v>993.93</v>
+      </c>
+      <c r="K28" s="11">
+        <v>695.95599200000004</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
@@ -3862,9 +3887,12 @@
       <c r="H29" s="6">
         <v>255.392</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="21">
         <f t="shared" si="0"/>
         <v>1051.8620000000001</v>
+      </c>
+      <c r="K29" s="11">
+        <v>642.16303800000003</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.25">
@@ -3883,9 +3911,12 @@
       <c r="H30" s="6">
         <v>253.054</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="21">
         <f t="shared" si="0"/>
         <v>1260.0240000000001</v>
+      </c>
+      <c r="K30" s="11">
+        <v>584.09690899999998</v>
       </c>
     </row>
   </sheetData>
@@ -3901,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,17 +3970,17 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
